--- a/GMoney/GMoney/Categories_Money.xlsx
+++ b/GMoney/GMoney/Categories_Money.xlsx
@@ -1373,10 +1373,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Movie &amp; Concert</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Recreational supplies</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2635,22 +2631,6 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>映画やコンサート</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>エイガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
       <t>教養娯楽用品</t>
     </r>
     <rPh sb="0" eb="2">
@@ -4218,9 +4198,6 @@
     <t>Health Club</t>
   </si>
   <si>
-    <t>Hobbies/Leisure</t>
-  </si>
-  <si>
     <t>Homeowner's Dues</t>
   </si>
   <si>
@@ -4753,6 +4730,21 @@
   </si>
   <si>
     <t>new ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hobbies/Leisure</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>興味・レジャー</t>
+    <rPh sb="0" eb="2">
+      <t>キョウミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hobbies/Leisure</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5340,6 +5332,27 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5378,27 +5391,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5706,10 +5698,10 @@
   <dimension ref="A1:S93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="H71" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="H11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I83" sqref="I83"/>
+      <selection pane="bottomRight" activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -5725,35 +5717,35 @@
     <col min="10" max="10" width="10.875" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.25" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13" style="77" customWidth="1"/>
+    <col min="13" max="13" width="13" style="64" customWidth="1"/>
     <col min="14" max="14" width="11.75" style="4" customWidth="1"/>
-    <col min="15" max="15" width="9" style="79"/>
+    <col min="15" max="15" width="9" style="66"/>
     <col min="16" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="61"/>
+      <c r="E1" s="68"/>
       <c r="F1" s="55"/>
       <c r="G1" s="54"/>
-      <c r="H1" s="62" t="s">
+      <c r="H1" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="62"/>
+      <c r="I1" s="69"/>
       <c r="J1" s="60"/>
       <c r="K1" s="60"/>
       <c r="L1" s="54"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B2" s="47" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C2" s="47" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>17</v>
@@ -5762,10 +5754,10 @@
         <v>16</v>
       </c>
       <c r="F2" s="55" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G2" s="54" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="H2" s="54" t="s">
         <v>17</v>
@@ -5774,56 +5766,56 @@
         <v>16</v>
       </c>
       <c r="J2" s="60" t="s">
+        <v>652</v>
+      </c>
+      <c r="K2" s="60" t="s">
+        <v>653</v>
+      </c>
+      <c r="L2" s="54" t="s">
+        <v>228</v>
+      </c>
+      <c r="M2" s="64" t="s">
+        <v>421</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="61" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62">
+        <v>0</v>
+      </c>
+      <c r="H3" s="62"/>
+      <c r="I3" s="63" t="s">
+        <v>142</v>
+      </c>
+      <c r="J3" s="63">
+        <v>280000</v>
+      </c>
+      <c r="K3" s="63">
+        <v>30000</v>
+      </c>
+      <c r="L3" s="62">
+        <v>0</v>
+      </c>
+      <c r="M3" s="62"/>
+      <c r="O3" s="66"/>
+      <c r="R3" s="61" t="s">
         <v>655</v>
-      </c>
-      <c r="K2" s="60" t="s">
-        <v>656</v>
-      </c>
-      <c r="L2" s="54" t="s">
-        <v>229</v>
-      </c>
-      <c r="M2" s="77" t="s">
-        <v>422</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>650</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>652</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>657</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" s="74" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75">
-        <v>0</v>
-      </c>
-      <c r="H3" s="75"/>
-      <c r="I3" s="76" t="s">
-        <v>142</v>
-      </c>
-      <c r="J3" s="76">
-        <v>280000</v>
-      </c>
-      <c r="K3" s="76">
-        <v>30000</v>
-      </c>
-      <c r="L3" s="75">
-        <v>0</v>
-      </c>
-      <c r="M3" s="75"/>
-      <c r="O3" s="79"/>
-      <c r="R3" s="74" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.15">
@@ -5837,7 +5829,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>159</v>
@@ -5849,10 +5841,10 @@
         <v>1</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J4" s="4">
         <v>0</v>
@@ -5863,8 +5855,8 @@
       <c r="L4" s="4">
         <v>1</v>
       </c>
-      <c r="M4" s="77" t="s">
-        <v>632</v>
+      <c r="M4" s="64" t="s">
+        <v>629</v>
       </c>
       <c r="N4" s="4" t="e">
         <f>VLOOKUP(M4,m_sub.old!$B$3:$D$81,3,FALSE)</f>
@@ -5892,10 +5884,10 @@
         <v>2</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J5" s="4">
         <v>0</v>
@@ -5906,7 +5898,7 @@
       <c r="L5" s="4">
         <v>2</v>
       </c>
-      <c r="M5" s="77">
+      <c r="M5" s="64">
         <v>11</v>
       </c>
       <c r="N5" s="4" t="str">
@@ -5931,10 +5923,10 @@
         <v>3</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J6" s="4">
         <v>0</v>
@@ -5945,8 +5937,8 @@
       <c r="L6" s="4">
         <v>3</v>
       </c>
-      <c r="M6" s="77" t="s">
-        <v>627</v>
+      <c r="M6" s="64" t="s">
+        <v>624</v>
       </c>
       <c r="N6" s="4" t="e">
         <f>VLOOKUP(M6,m_sub.old!$B$3:$D$81,3,FALSE)</f>
@@ -5970,10 +5962,10 @@
         <v>4</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J7" s="4">
         <v>0</v>
@@ -5984,7 +5976,7 @@
       <c r="L7" s="4">
         <v>4</v>
       </c>
-      <c r="M7" s="77">
+      <c r="M7" s="64">
         <v>70</v>
       </c>
       <c r="N7" s="4" t="str">
@@ -6008,10 +6000,10 @@
         <v>5</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J8" s="4">
         <v>0</v>
@@ -6040,10 +6032,10 @@
         <v>6</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J9" s="4">
         <v>0</v>
@@ -6072,10 +6064,10 @@
         <v>7</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J10" s="4">
         <v>0</v>
@@ -6104,10 +6096,10 @@
         <v>8</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J11" s="4">
         <v>0</v>
@@ -6135,10 +6127,10 @@
         <v>0</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F12" s="4">
         <v>2</v>
@@ -6147,10 +6139,10 @@
         <v>9</v>
       </c>
       <c r="H12" s="59" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="J12" s="4">
         <v>0</v>
@@ -6161,7 +6153,7 @@
       <c r="L12" s="4">
         <v>1</v>
       </c>
-      <c r="M12" s="77">
+      <c r="M12" s="64">
         <v>10</v>
       </c>
       <c r="N12" s="4" t="str">
@@ -6190,10 +6182,10 @@
         <v>10</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J13" s="4">
         <v>0</v>
@@ -6204,7 +6196,7 @@
       <c r="L13" s="4">
         <v>2</v>
       </c>
-      <c r="M13" s="77">
+      <c r="M13" s="64">
         <v>22</v>
       </c>
       <c r="N13" s="4" t="str">
@@ -6229,10 +6221,10 @@
         <v>11</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J14" s="4">
         <v>0</v>
@@ -6261,10 +6253,10 @@
         <v>12</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J15" s="4">
         <v>0</v>
@@ -6292,10 +6284,10 @@
         <v>0</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F16" s="4">
         <v>3</v>
@@ -6304,10 +6296,10 @@
         <v>13</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J16" s="4">
         <v>0</v>
@@ -6318,7 +6310,7 @@
       <c r="L16" s="4">
         <v>1</v>
       </c>
-      <c r="M16" s="77">
+      <c r="M16" s="64">
         <v>4</v>
       </c>
       <c r="N16" s="4" t="str">
@@ -6347,10 +6339,10 @@
         <v>14</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J17" s="4">
         <v>0</v>
@@ -6361,7 +6353,7 @@
       <c r="L17" s="4">
         <v>2</v>
       </c>
-      <c r="M17" s="77">
+      <c r="M17" s="64">
         <v>9</v>
       </c>
       <c r="N17" s="4" t="str">
@@ -6386,10 +6378,10 @@
         <v>15</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J18" s="4">
         <v>0</v>
@@ -6418,10 +6410,10 @@
         <v>16</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J19" s="4">
         <v>0</v>
@@ -6432,7 +6424,7 @@
       <c r="L19" s="4">
         <v>4</v>
       </c>
-      <c r="M19" s="77">
+      <c r="M19" s="64">
         <v>2</v>
       </c>
       <c r="N19" s="4" t="str">
@@ -6456,10 +6448,10 @@
         <v>0</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F20" s="4">
         <v>4</v>
@@ -6468,10 +6460,10 @@
         <v>17</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J20" s="4">
         <v>0</v>
@@ -6504,10 +6496,10 @@
         <v>18</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J21" s="4">
         <v>0</v>
@@ -6518,7 +6510,7 @@
       <c r="L21" s="4">
         <v>2</v>
       </c>
-      <c r="M21" s="77">
+      <c r="M21" s="64">
         <v>1</v>
       </c>
       <c r="N21" s="4" t="str">
@@ -6543,10 +6535,10 @@
         <v>19</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J22" s="4">
         <v>0</v>
@@ -6575,10 +6567,10 @@
         <v>20</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J23" s="4">
         <v>0</v>
@@ -6607,10 +6599,10 @@
         <v>21</v>
       </c>
       <c r="H24" s="53" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="J24" s="4">
         <v>0</v>
@@ -6621,7 +6613,7 @@
       <c r="L24" s="4">
         <v>5</v>
       </c>
-      <c r="M24" s="77">
+      <c r="M24" s="64">
         <v>3</v>
       </c>
       <c r="N24" s="4" t="str">
@@ -6645,7 +6637,7 @@
         <v>0</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>154</v>
@@ -6657,10 +6649,10 @@
         <v>22</v>
       </c>
       <c r="H25" s="59" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="J25" s="4">
         <v>0</v>
@@ -6671,7 +6663,7 @@
       <c r="L25" s="4">
         <v>1</v>
       </c>
-      <c r="M25" s="77">
+      <c r="M25" s="64">
         <v>8</v>
       </c>
       <c r="N25" s="4" t="str">
@@ -6700,7 +6692,7 @@
         <v>23</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>155</v>
@@ -6732,7 +6724,7 @@
         <v>24</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>156</v>
@@ -6764,7 +6756,7 @@
         <v>25</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>157</v>
@@ -6796,10 +6788,10 @@
         <v>26</v>
       </c>
       <c r="H29" s="53" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="J29" s="4">
         <v>0</v>
@@ -6810,8 +6802,8 @@
       <c r="L29" s="4">
         <v>5</v>
       </c>
-      <c r="M29" s="77" t="s">
-        <v>624</v>
+      <c r="M29" s="64" t="s">
+        <v>621</v>
       </c>
       <c r="N29" s="4" t="e">
         <f>VLOOKUP(M29,m_sub.old!$B$3:$D$81,3,FALSE)</f>
@@ -6834,7 +6826,7 @@
         <v>0</v>
       </c>
       <c r="D30" s="53" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>138</v>
@@ -6846,7 +6838,7 @@
         <v>27</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>147</v>
@@ -6860,7 +6852,7 @@
       <c r="L30" s="4">
         <v>1</v>
       </c>
-      <c r="M30" s="77">
+      <c r="M30" s="64">
         <v>64</v>
       </c>
       <c r="N30" s="4" t="str">
@@ -6889,7 +6881,7 @@
         <v>28</v>
       </c>
       <c r="H31" s="53" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>145</v>
@@ -6903,7 +6895,7 @@
       <c r="L31" s="4">
         <v>2</v>
       </c>
-      <c r="M31" s="77">
+      <c r="M31" s="64">
         <v>23</v>
       </c>
       <c r="N31" s="4" t="str">
@@ -6942,7 +6934,7 @@
       <c r="L32" s="4">
         <v>3</v>
       </c>
-      <c r="M32" s="77">
+      <c r="M32" s="64">
         <v>29</v>
       </c>
       <c r="N32" s="4" t="str">
@@ -6967,10 +6959,10 @@
         <v>30</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J33" s="4">
         <v>0</v>
@@ -6981,7 +6973,7 @@
       <c r="L33" s="4">
         <v>4</v>
       </c>
-      <c r="M33" s="77">
+      <c r="M33" s="64">
         <v>17</v>
       </c>
       <c r="N33" s="4" t="str">
@@ -7005,10 +6997,10 @@
         <v>0</v>
       </c>
       <c r="D34" s="53" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="F34" s="4">
         <v>7</v>
@@ -7016,11 +7008,11 @@
       <c r="G34" s="4">
         <v>31</v>
       </c>
-      <c r="H34" s="6" t="s">
-        <v>423</v>
+      <c r="H34" s="53" t="s">
+        <v>672</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>167</v>
+        <v>673</v>
       </c>
       <c r="J34" s="4">
         <v>0</v>
@@ -7041,7 +7033,7 @@
       </c>
       <c r="R34" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into m_sub values (NULL,7,'Movie &amp; Concert',0,0,1, datetime('now'), datetime('now'), 0);</v>
+        <v>insert into m_sub values (NULL,7,'Hobbies/Leisure',0,0,1, datetime('now'), datetime('now'), 0);</v>
       </c>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.15">
@@ -7053,10 +7045,10 @@
         <v>32</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J35" s="4">
         <v>0</v>
@@ -7067,15 +7059,15 @@
       <c r="L35" s="4">
         <v>2</v>
       </c>
-      <c r="M35" s="77">
+      <c r="M35" s="64">
         <v>30</v>
       </c>
       <c r="N35" s="4" t="str">
         <f>VLOOKUP(M35,m_sub.old!$B$3:$D$81,3,FALSE)</f>
         <v>Hobbies/Leisure</v>
       </c>
-      <c r="O35" s="80" t="s">
-        <v>631</v>
+      <c r="O35" s="67" t="s">
+        <v>628</v>
       </c>
       <c r="R35" s="4" t="str">
         <f t="shared" si="0"/>
@@ -7095,10 +7087,10 @@
         <v>33</v>
       </c>
       <c r="H36" s="53" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="J36" s="4">
         <v>0</v>
@@ -7109,7 +7101,7 @@
       <c r="L36" s="4">
         <v>3</v>
       </c>
-      <c r="M36" s="77">
+      <c r="M36" s="64">
         <v>16</v>
       </c>
       <c r="N36" s="4" t="str">
@@ -7134,10 +7126,10 @@
         <v>34</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J37" s="4">
         <v>0</v>
@@ -7148,7 +7140,7 @@
       <c r="L37" s="4">
         <v>4</v>
       </c>
-      <c r="M37" s="77">
+      <c r="M37" s="64">
         <v>15</v>
       </c>
       <c r="N37" s="4" t="str">
@@ -7173,7 +7165,7 @@
         <v>35</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="I38" s="4" t="s">
         <v>148</v>
@@ -7187,7 +7179,7 @@
       <c r="L38" s="4">
         <v>5</v>
       </c>
-      <c r="M38" s="77">
+      <c r="M38" s="64">
         <v>40</v>
       </c>
       <c r="N38" s="4" t="str">
@@ -7212,10 +7204,10 @@
         <v>36</v>
       </c>
       <c r="H39" s="53" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="J39" s="4">
         <v>0</v>
@@ -7226,7 +7218,7 @@
       <c r="L39" s="4">
         <v>6</v>
       </c>
-      <c r="M39" s="77">
+      <c r="M39" s="64">
         <v>33</v>
       </c>
       <c r="N39" s="4" t="str">
@@ -7250,7 +7242,7 @@
         <v>0</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>149</v>
@@ -7262,7 +7254,7 @@
         <v>37</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I40" s="4" t="s">
         <v>166</v>
@@ -7298,7 +7290,7 @@
         <v>38</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="I41" s="4" t="s">
         <v>150</v>
@@ -7312,7 +7304,7 @@
       <c r="L41" s="4">
         <v>2</v>
       </c>
-      <c r="M41" s="77">
+      <c r="M41" s="64">
         <v>18</v>
       </c>
       <c r="N41" s="4" t="str">
@@ -7337,10 +7329,10 @@
         <v>39</v>
       </c>
       <c r="H42" s="53" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="J42" s="4">
         <v>0</v>
@@ -7351,7 +7343,7 @@
       <c r="L42" s="4">
         <v>3</v>
       </c>
-      <c r="M42" s="77">
+      <c r="M42" s="64">
         <v>25</v>
       </c>
       <c r="N42" s="4" t="str">
@@ -7376,7 +7368,7 @@
         <v>40</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="I43" s="4" t="s">
         <v>151</v>
@@ -7390,7 +7382,7 @@
       <c r="L43" s="4">
         <v>4</v>
       </c>
-      <c r="M43" s="77">
+      <c r="M43" s="64">
         <v>28</v>
       </c>
       <c r="N43" s="4" t="str">
@@ -7415,7 +7407,7 @@
         <v>41</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>153</v>
@@ -7446,10 +7438,10 @@
         <v>0</v>
       </c>
       <c r="D45" s="53" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="F45" s="4">
         <v>9</v>
@@ -7458,10 +7450,10 @@
         <v>42</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J45" s="4">
         <v>0</v>
@@ -7472,7 +7464,7 @@
       <c r="L45" s="4">
         <v>1</v>
       </c>
-      <c r="M45" s="77">
+      <c r="M45" s="64">
         <v>21</v>
       </c>
       <c r="N45" s="4" t="str">
@@ -7501,10 +7493,10 @@
         <v>43</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J46" s="4">
         <v>0</v>
@@ -7533,10 +7525,10 @@
         <v>44</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J47" s="4">
         <v>0</v>
@@ -7547,7 +7539,7 @@
       <c r="L47" s="4">
         <v>3</v>
       </c>
-      <c r="M47" s="77">
+      <c r="M47" s="64">
         <v>19</v>
       </c>
       <c r="N47" s="4" t="str">
@@ -7571,10 +7563,10 @@
         <v>0</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F48" s="4">
         <v>10</v>
@@ -7583,10 +7575,10 @@
         <v>45</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J48" s="4">
         <v>0</v>
@@ -7597,8 +7589,8 @@
       <c r="L48" s="4">
         <v>1</v>
       </c>
-      <c r="M48" s="77" t="s">
-        <v>644</v>
+      <c r="M48" s="64" t="s">
+        <v>641</v>
       </c>
       <c r="N48" s="4" t="e">
         <f>VLOOKUP(M48,m_sub.old!$B$3:$D$81,3,FALSE)</f>
@@ -7626,10 +7618,10 @@
         <v>46</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J49" s="4">
         <v>0</v>
@@ -7658,10 +7650,10 @@
         <v>47</v>
       </c>
       <c r="H50" s="53" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="J50" s="4">
         <v>0</v>
@@ -7672,8 +7664,8 @@
       <c r="L50" s="4">
         <v>3</v>
       </c>
-      <c r="M50" s="77" t="s">
-        <v>643</v>
+      <c r="M50" s="64" t="s">
+        <v>640</v>
       </c>
       <c r="N50" s="4" t="e">
         <f>VLOOKUP(M50,m_sub.old!$B$3:$D$81,3,FALSE)</f>
@@ -7697,7 +7689,7 @@
         <v>48</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="I51" s="4" t="s">
         <v>152</v>
@@ -7728,10 +7720,10 @@
         <v>0</v>
       </c>
       <c r="D52" s="53" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="F52" s="4">
         <v>11</v>
@@ -7740,10 +7732,10 @@
         <v>49</v>
       </c>
       <c r="H52" s="53" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="J52" s="4">
         <v>0</v>
@@ -7776,10 +7768,10 @@
         <v>50</v>
       </c>
       <c r="H53" s="53" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="J53" s="4">
         <v>0</v>
@@ -7807,7 +7799,7 @@
         <v>0</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>161</v>
@@ -7819,10 +7811,10 @@
         <v>51</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J54" s="4">
         <v>0</v>
@@ -7855,10 +7847,10 @@
         <v>52</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J55" s="4">
         <v>0</v>
@@ -7887,10 +7879,10 @@
         <v>53</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J56" s="4">
         <v>0</v>
@@ -7901,7 +7893,7 @@
       <c r="L56" s="4">
         <v>3</v>
       </c>
-      <c r="M56" s="77">
+      <c r="M56" s="64">
         <v>39</v>
       </c>
       <c r="N56" s="4" t="str">
@@ -7926,10 +7918,10 @@
         <v>54</v>
       </c>
       <c r="H57" s="53" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="J57" s="4">
         <v>0</v>
@@ -7940,15 +7932,15 @@
       <c r="L57" s="4">
         <v>4</v>
       </c>
-      <c r="M57" s="77" t="s">
-        <v>637</v>
+      <c r="M57" s="64" t="s">
+        <v>634</v>
       </c>
       <c r="N57" s="4" t="e">
         <f>VLOOKUP(M57,m_sub.old!$B$3:$D$81,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="O57" s="80" t="s">
-        <v>631</v>
+      <c r="O57" s="67" t="s">
+        <v>628</v>
       </c>
       <c r="R57" s="4" t="str">
         <f t="shared" si="0"/>
@@ -7967,7 +7959,7 @@
         <v>2</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>158</v>
@@ -7979,10 +7971,10 @@
         <v>55</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J58" s="4">
         <v>0</v>
@@ -8015,10 +8007,10 @@
         <v>56</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J59" s="4">
         <v>0</v>
@@ -8029,7 +8021,7 @@
       <c r="L59" s="4">
         <v>2</v>
       </c>
-      <c r="M59" s="77">
+      <c r="M59" s="64">
         <v>52</v>
       </c>
       <c r="N59" s="4" t="str">
@@ -8054,7 +8046,7 @@
         <v>57</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="I60" s="4" t="s">
         <v>164</v>
@@ -8086,7 +8078,7 @@
         <v>58</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="I61" s="4" t="s">
         <v>165</v>
@@ -8100,8 +8092,8 @@
       <c r="L61" s="4">
         <v>4</v>
       </c>
-      <c r="M61" s="77" t="s">
-        <v>651</v>
+      <c r="M61" s="64" t="s">
+        <v>648</v>
       </c>
       <c r="N61" s="4" t="e">
         <f>VLOOKUP(M61,m_sub.old!$B$3:$D$81,3,FALSE)</f>
@@ -8125,7 +8117,7 @@
         <v>59</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="I62" s="4" t="s">
         <v>163</v>
@@ -8156,7 +8148,7 @@
         <v>2</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>162</v>
@@ -8168,10 +8160,10 @@
         <v>60</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J63" s="4">
         <v>0</v>
@@ -8182,7 +8174,7 @@
       <c r="L63" s="4">
         <v>1</v>
       </c>
-      <c r="M63" s="77">
+      <c r="M63" s="64">
         <v>45</v>
       </c>
       <c r="N63" s="4" t="str">
@@ -8211,10 +8203,10 @@
         <v>61</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J64" s="4">
         <v>0</v>
@@ -8225,7 +8217,7 @@
       <c r="L64" s="4">
         <v>2</v>
       </c>
-      <c r="M64" s="77">
+      <c r="M64" s="64">
         <v>44</v>
       </c>
       <c r="N64" s="4" t="str">
@@ -8250,10 +8242,10 @@
         <v>62</v>
       </c>
       <c r="H65" s="53" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="J65" s="4">
         <v>0</v>
@@ -8264,7 +8256,7 @@
       <c r="L65" s="4">
         <v>3</v>
       </c>
-      <c r="M65" s="77">
+      <c r="M65" s="64">
         <v>53</v>
       </c>
       <c r="N65" s="4" t="str">
@@ -8289,10 +8281,10 @@
         <v>63</v>
       </c>
       <c r="H66" s="53" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="J66" s="4">
         <v>0</v>
@@ -8303,7 +8295,7 @@
       <c r="L66" s="4">
         <v>4</v>
       </c>
-      <c r="M66" s="77">
+      <c r="M66" s="64">
         <v>54</v>
       </c>
       <c r="N66" s="4" t="str">
@@ -8327,7 +8319,7 @@
         <v>2</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>160</v>
@@ -8339,10 +8331,10 @@
         <v>64</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J67" s="4">
         <v>0</v>
@@ -8353,7 +8345,7 @@
       <c r="L67" s="4">
         <v>1</v>
       </c>
-      <c r="M67" s="77">
+      <c r="M67" s="64">
         <v>51</v>
       </c>
       <c r="N67" s="4" t="str">
@@ -8382,10 +8374,10 @@
         <v>65</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J68" s="4">
         <v>0</v>
@@ -8414,10 +8406,10 @@
         <v>66</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J69" s="4">
         <v>0</v>
@@ -8446,10 +8438,10 @@
         <v>67</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J70" s="4">
         <v>0</v>
@@ -8460,7 +8452,7 @@
       <c r="L70" s="4">
         <v>4</v>
       </c>
-      <c r="M70" s="77">
+      <c r="M70" s="64">
         <v>49</v>
       </c>
       <c r="N70" s="4" t="str">
@@ -8485,7 +8477,7 @@
         <v>68</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="I71" s="4" t="s">
         <v>152</v>
@@ -8519,10 +8511,10 @@
         <v>1</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F72" s="4">
         <v>951</v>
@@ -8531,10 +8523,10 @@
         <v>69</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J72" s="4">
         <v>0</v>
@@ -8567,10 +8559,10 @@
         <v>70</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J73" s="4">
         <v>0</v>
@@ -8581,7 +8573,7 @@
       <c r="L73" s="4">
         <v>2</v>
       </c>
-      <c r="M73" s="77">
+      <c r="M73" s="64">
         <v>55</v>
       </c>
       <c r="N73" s="4" t="str">
@@ -8606,10 +8598,10 @@
         <v>71</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J74" s="4">
         <v>0</v>
@@ -8620,7 +8612,7 @@
       <c r="L74" s="4">
         <v>3</v>
       </c>
-      <c r="M74" s="77">
+      <c r="M74" s="64">
         <v>72</v>
       </c>
       <c r="N74" s="4" t="str">
@@ -8645,10 +8637,10 @@
         <v>72</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J75" s="4">
         <v>0</v>
@@ -8677,10 +8669,10 @@
         <v>73</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J76" s="4">
         <v>0</v>
@@ -8709,10 +8701,10 @@
         <v>74</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J77" s="4">
         <v>0</v>
@@ -8723,7 +8715,7 @@
       <c r="L77" s="4">
         <v>6</v>
       </c>
-      <c r="M77" s="77">
+      <c r="M77" s="64">
         <v>56</v>
       </c>
       <c r="N77" s="4" t="str">
@@ -8748,10 +8740,10 @@
         <v>75</v>
       </c>
       <c r="H78" s="6" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J78" s="4">
         <v>0</v>
@@ -8779,10 +8771,10 @@
         <v>1</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F79" s="4">
         <v>952</v>
@@ -8791,10 +8783,10 @@
         <v>76</v>
       </c>
       <c r="H79" s="6" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J79" s="4">
         <v>0</v>
@@ -8827,10 +8819,10 @@
         <v>77</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J80" s="4">
         <v>0</v>
@@ -8859,10 +8851,10 @@
         <v>78</v>
       </c>
       <c r="H81" s="53" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="J81" s="4">
         <v>0</v>
@@ -8890,10 +8882,10 @@
         <v>1</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F82" s="4">
         <v>953</v>
@@ -8902,10 +8894,10 @@
         <v>79</v>
       </c>
       <c r="H82" s="6" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J82" s="4">
         <v>0</v>
@@ -8938,10 +8930,10 @@
         <v>80</v>
       </c>
       <c r="H83" s="6" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J83" s="4">
         <v>0</v>
@@ -8970,10 +8962,10 @@
         <v>81</v>
       </c>
       <c r="H84" s="53" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="J84" s="4">
         <v>0</v>
@@ -8984,7 +8976,7 @@
       <c r="L84" s="4">
         <v>3</v>
       </c>
-      <c r="M84" s="77">
+      <c r="M84" s="64">
         <v>59</v>
       </c>
       <c r="N84" s="4" t="str">
@@ -9009,10 +9001,10 @@
         <v>82</v>
       </c>
       <c r="H85" s="6" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J85" s="4">
         <v>0</v>
@@ -9041,10 +9033,10 @@
         <v>83</v>
       </c>
       <c r="H86" s="6" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J86" s="4">
         <v>0</v>
@@ -9073,10 +9065,10 @@
         <v>84</v>
       </c>
       <c r="H87" s="6" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J87" s="4">
         <v>0</v>
@@ -9105,10 +9097,10 @@
         <v>85</v>
       </c>
       <c r="H88" s="6" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J88" s="4">
         <v>0</v>
@@ -9119,7 +9111,7 @@
       <c r="L88" s="4">
         <v>7</v>
       </c>
-      <c r="M88" s="77">
+      <c r="M88" s="64">
         <v>57</v>
       </c>
       <c r="N88" s="4" t="str">
@@ -9144,10 +9136,10 @@
         <v>86</v>
       </c>
       <c r="H89" s="6" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J89" s="4">
         <v>0</v>
@@ -9176,10 +9168,10 @@
         <v>87</v>
       </c>
       <c r="H90" s="6" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J90" s="4">
         <v>0</v>
@@ -9190,7 +9182,7 @@
       <c r="L90" s="4">
         <v>9</v>
       </c>
-      <c r="M90" s="77">
+      <c r="M90" s="64">
         <v>61</v>
       </c>
       <c r="N90" s="4" t="str">
@@ -9215,10 +9207,10 @@
         <v>88</v>
       </c>
       <c r="H91" s="6" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J91" s="4">
         <v>0</v>
@@ -9247,7 +9239,7 @@
         <v>89</v>
       </c>
       <c r="H92" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="I92" s="4" t="s">
         <v>152</v>
@@ -9261,15 +9253,15 @@
       <c r="L92" s="4">
         <v>11</v>
       </c>
-      <c r="M92" s="77" t="s">
-        <v>645</v>
+      <c r="M92" s="64" t="s">
+        <v>642</v>
       </c>
       <c r="N92" s="4" t="e">
         <f>VLOOKUP(M92,m_sub.old!$B$3:$D$81,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="O92" s="80" t="s">
-        <v>631</v>
+      <c r="O92" s="67" t="s">
+        <v>628</v>
       </c>
       <c r="R92" s="4" t="str">
         <f t="shared" si="1"/>
@@ -9300,8 +9292,8 @@
   <dimension ref="A2:N83"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N4" sqref="N4"/>
+      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -9323,66 +9315,66 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="75" t="s">
+        <v>230</v>
+      </c>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="78" t="s">
         <v>231</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="71" t="s">
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78" t="s">
         <v>232</v>
       </c>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71" t="s">
+      <c r="M2" s="78" t="s">
         <v>233</v>
       </c>
-      <c r="M2" s="71" t="s">
+      <c r="N2" s="70" t="s">
         <v>234</v>
-      </c>
-      <c r="N2" s="63" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B3" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="F3" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="G3" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="I3" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="I3" s="12" t="s">
+      <c r="J3" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="K3" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="70"/>
+    </row>
+    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+      <c r="A4" s="71" t="s">
         <v>242</v>
-      </c>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="63"/>
-    </row>
-    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="64" t="s">
-        <v>243</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
@@ -9392,7 +9384,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H4" s="18"/>
       <c r="I4" s="19">
@@ -9407,11 +9399,11 @@
       <c r="L4" s="18"/>
       <c r="M4" s="18"/>
       <c r="N4" s="21" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="65"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="22">
         <v>1</v>
       </c>
@@ -9419,19 +9411,19 @@
         <v>1</v>
       </c>
       <c r="D5" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="E5" s="24" t="s">
         <v>245</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>246</v>
       </c>
       <c r="F5" s="16">
         <v>1</v>
       </c>
       <c r="G5" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="H5" s="25" t="s">
         <v>247</v>
-      </c>
-      <c r="H5" s="25" t="s">
-        <v>248</v>
       </c>
       <c r="I5" s="19">
         <v>0</v>
@@ -9450,7 +9442,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="65"/>
+      <c r="A6" s="72"/>
       <c r="B6" s="27">
         <v>1</v>
       </c>
@@ -9463,10 +9455,10 @@
         <v>1</v>
       </c>
       <c r="G6" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="H6" s="25" t="s">
         <v>249</v>
-      </c>
-      <c r="H6" s="25" t="s">
-        <v>250</v>
       </c>
       <c r="I6" s="19">
         <v>5000</v>
@@ -9485,7 +9477,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="65"/>
+      <c r="A7" s="72"/>
       <c r="B7" s="27">
         <v>1</v>
       </c>
@@ -9498,10 +9490,10 @@
         <v>1</v>
       </c>
       <c r="G7" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="H7" s="25" t="s">
         <v>251</v>
-      </c>
-      <c r="H7" s="25" t="s">
-        <v>252</v>
       </c>
       <c r="I7" s="19">
         <v>0</v>
@@ -9520,7 +9512,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="65"/>
+      <c r="A8" s="72"/>
       <c r="B8" s="27">
         <v>1</v>
       </c>
@@ -9533,10 +9525,10 @@
         <v>1</v>
       </c>
       <c r="G8" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="H8" s="25" t="s">
         <v>253</v>
-      </c>
-      <c r="H8" s="25" t="s">
-        <v>254</v>
       </c>
       <c r="I8" s="19">
         <v>6000</v>
@@ -9555,7 +9547,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="65"/>
+      <c r="A9" s="72"/>
       <c r="B9" s="27">
         <v>1</v>
       </c>
@@ -9568,10 +9560,10 @@
         <v>1</v>
       </c>
       <c r="G9" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="H9" s="25" t="s">
         <v>255</v>
-      </c>
-      <c r="H9" s="25" t="s">
-        <v>256</v>
       </c>
       <c r="I9" s="19">
         <v>0</v>
@@ -9590,7 +9582,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="65"/>
+      <c r="A10" s="72"/>
       <c r="B10" s="27">
         <v>1</v>
       </c>
@@ -9603,10 +9595,10 @@
         <v>1</v>
       </c>
       <c r="G10" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="H10" s="25" t="s">
         <v>257</v>
-      </c>
-      <c r="H10" s="25" t="s">
-        <v>258</v>
       </c>
       <c r="I10" s="19">
         <v>0</v>
@@ -9625,7 +9617,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="65"/>
+      <c r="A11" s="72"/>
       <c r="B11" s="27">
         <v>1</v>
       </c>
@@ -9638,10 +9630,10 @@
         <v>1</v>
       </c>
       <c r="G11" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="H11" s="25" t="s">
         <v>259</v>
-      </c>
-      <c r="H11" s="25" t="s">
-        <v>260</v>
       </c>
       <c r="I11" s="19">
         <v>0</v>
@@ -9660,7 +9652,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="65"/>
+      <c r="A12" s="72"/>
       <c r="B12" s="27">
         <v>1</v>
       </c>
@@ -9673,10 +9665,10 @@
         <v>1</v>
       </c>
       <c r="G12" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="H12" s="25" t="s">
         <v>261</v>
-      </c>
-      <c r="H12" s="25" t="s">
-        <v>262</v>
       </c>
       <c r="I12" s="19">
         <v>0</v>
@@ -9695,7 +9687,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="65"/>
+      <c r="A13" s="72"/>
       <c r="B13" s="30">
         <v>1</v>
       </c>
@@ -9708,10 +9700,10 @@
         <v>1</v>
       </c>
       <c r="G13" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="H13" s="25" t="s">
         <v>263</v>
-      </c>
-      <c r="H13" s="25" t="s">
-        <v>264</v>
       </c>
       <c r="I13" s="19">
         <v>10000</v>
@@ -9730,7 +9722,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="65"/>
+      <c r="A14" s="72"/>
       <c r="B14" s="22">
         <v>2</v>
       </c>
@@ -9738,19 +9730,19 @@
         <v>2</v>
       </c>
       <c r="D14" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="E14" s="24" t="s">
         <v>265</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>266</v>
       </c>
       <c r="F14" s="16">
         <v>2</v>
       </c>
       <c r="G14" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="H14" s="25" t="s">
         <v>267</v>
-      </c>
-      <c r="H14" s="25" t="s">
-        <v>268</v>
       </c>
       <c r="I14" s="19">
         <v>0</v>
@@ -9769,7 +9761,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="65"/>
+      <c r="A15" s="72"/>
       <c r="B15" s="30">
         <v>2</v>
       </c>
@@ -9782,10 +9774,10 @@
         <v>2</v>
       </c>
       <c r="G15" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="H15" s="25" t="s">
         <v>269</v>
-      </c>
-      <c r="H15" s="25" t="s">
-        <v>270</v>
       </c>
       <c r="I15" s="19">
         <v>0</v>
@@ -9804,7 +9796,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="65"/>
+      <c r="A16" s="72"/>
       <c r="B16" s="22">
         <v>3</v>
       </c>
@@ -9812,19 +9804,19 @@
         <v>3</v>
       </c>
       <c r="D16" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="E16" s="24" t="s">
         <v>271</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>272</v>
       </c>
       <c r="F16" s="16">
         <v>3</v>
       </c>
       <c r="G16" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="H16" s="25" t="s">
         <v>273</v>
-      </c>
-      <c r="H16" s="25" t="s">
-        <v>274</v>
       </c>
       <c r="I16" s="19">
         <v>0</v>
@@ -9843,7 +9835,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="65"/>
+      <c r="A17" s="72"/>
       <c r="B17" s="27">
         <v>3</v>
       </c>
@@ -9856,10 +9848,10 @@
         <v>3</v>
       </c>
       <c r="G17" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="H17" s="25" t="s">
         <v>275</v>
-      </c>
-      <c r="H17" s="25" t="s">
-        <v>276</v>
       </c>
       <c r="I17" s="19">
         <v>0</v>
@@ -9878,7 +9870,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="65"/>
+      <c r="A18" s="72"/>
       <c r="B18" s="30">
         <v>3</v>
       </c>
@@ -9891,10 +9883,10 @@
         <v>3</v>
       </c>
       <c r="G18" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="H18" s="25" t="s">
         <v>277</v>
-      </c>
-      <c r="H18" s="25" t="s">
-        <v>278</v>
       </c>
       <c r="I18" s="19">
         <v>0</v>
@@ -9913,7 +9905,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="65"/>
+      <c r="A19" s="72"/>
       <c r="B19" s="22">
         <v>4</v>
       </c>
@@ -9921,19 +9913,19 @@
         <v>4</v>
       </c>
       <c r="D19" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="E19" s="24" t="s">
         <v>279</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>280</v>
       </c>
       <c r="F19" s="16">
         <v>4</v>
       </c>
       <c r="G19" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="H19" s="25" t="s">
         <v>281</v>
-      </c>
-      <c r="H19" s="25" t="s">
-        <v>282</v>
       </c>
       <c r="I19" s="19">
         <v>0</v>
@@ -9952,7 +9944,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="65"/>
+      <c r="A20" s="72"/>
       <c r="B20" s="27">
         <v>4</v>
       </c>
@@ -9965,10 +9957,10 @@
         <v>4</v>
       </c>
       <c r="G20" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="H20" s="25" t="s">
         <v>283</v>
-      </c>
-      <c r="H20" s="25" t="s">
-        <v>284</v>
       </c>
       <c r="I20" s="19">
         <v>0</v>
@@ -9987,7 +9979,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="65"/>
+      <c r="A21" s="72"/>
       <c r="B21" s="30">
         <v>4</v>
       </c>
@@ -10000,10 +9992,10 @@
         <v>4</v>
       </c>
       <c r="G21" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="H21" s="25" t="s">
         <v>285</v>
-      </c>
-      <c r="H21" s="25" t="s">
-        <v>286</v>
       </c>
       <c r="I21" s="19">
         <v>0</v>
@@ -10022,7 +10014,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="65"/>
+      <c r="A22" s="72"/>
       <c r="B22" s="22">
         <v>5</v>
       </c>
@@ -10030,19 +10022,19 @@
         <v>12</v>
       </c>
       <c r="D22" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="E22" s="34" t="s">
         <v>287</v>
-      </c>
-      <c r="E22" s="34" t="s">
-        <v>288</v>
       </c>
       <c r="F22" s="35">
         <v>5</v>
       </c>
       <c r="G22" s="35" t="s">
+        <v>288</v>
+      </c>
+      <c r="H22" s="36" t="s">
         <v>289</v>
-      </c>
-      <c r="H22" s="36" t="s">
-        <v>290</v>
       </c>
       <c r="I22" s="19">
         <v>0</v>
@@ -10054,7 +10046,7 @@
         <v>501</v>
       </c>
       <c r="L22" s="37" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M22" s="18"/>
       <c r="N22" s="21" t="str">
@@ -10063,7 +10055,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="65"/>
+      <c r="A23" s="72"/>
       <c r="B23" s="27">
         <v>5</v>
       </c>
@@ -10076,10 +10068,10 @@
         <v>5</v>
       </c>
       <c r="G23" s="35" t="s">
+        <v>291</v>
+      </c>
+      <c r="H23" s="36" t="s">
         <v>292</v>
-      </c>
-      <c r="H23" s="36" t="s">
-        <v>293</v>
       </c>
       <c r="I23" s="19">
         <v>0</v>
@@ -10092,7 +10084,7 @@
       </c>
       <c r="L23" s="18"/>
       <c r="M23" s="37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N23" s="21" t="str">
         <f t="shared" si="0"/>
@@ -10100,7 +10092,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="65"/>
+      <c r="A24" s="72"/>
       <c r="B24" s="27">
         <v>5</v>
       </c>
@@ -10113,10 +10105,10 @@
         <v>5</v>
       </c>
       <c r="G24" s="35" t="s">
+        <v>294</v>
+      </c>
+      <c r="H24" s="36" t="s">
         <v>295</v>
-      </c>
-      <c r="H24" s="36" t="s">
-        <v>296</v>
       </c>
       <c r="I24" s="19">
         <v>0</v>
@@ -10128,7 +10120,7 @@
         <v>503</v>
       </c>
       <c r="L24" s="37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="M24" s="18"/>
       <c r="N24" s="21" t="str">
@@ -10137,7 +10129,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="65"/>
+      <c r="A25" s="72"/>
       <c r="B25" s="22">
         <v>6</v>
       </c>
@@ -10145,19 +10137,19 @@
         <v>13</v>
       </c>
       <c r="D25" s="33" t="s">
+        <v>296</v>
+      </c>
+      <c r="E25" s="34" t="s">
         <v>297</v>
-      </c>
-      <c r="E25" s="34" t="s">
-        <v>298</v>
       </c>
       <c r="F25" s="35">
         <v>6</v>
       </c>
       <c r="G25" s="35" t="s">
+        <v>298</v>
+      </c>
+      <c r="H25" s="36" t="s">
         <v>299</v>
-      </c>
-      <c r="H25" s="36" t="s">
-        <v>300</v>
       </c>
       <c r="I25" s="19">
         <v>0</v>
@@ -10169,7 +10161,7 @@
         <v>601</v>
       </c>
       <c r="L25" s="37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="M25" s="18"/>
       <c r="N25" s="21" t="str">
@@ -10178,7 +10170,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="65"/>
+      <c r="A26" s="72"/>
       <c r="B26" s="27">
         <v>6</v>
       </c>
@@ -10191,10 +10183,10 @@
         <v>6</v>
       </c>
       <c r="G26" s="35" t="s">
+        <v>300</v>
+      </c>
+      <c r="H26" s="36" t="s">
         <v>301</v>
-      </c>
-      <c r="H26" s="36" t="s">
-        <v>302</v>
       </c>
       <c r="I26" s="19">
         <v>0</v>
@@ -10206,7 +10198,7 @@
         <v>602</v>
       </c>
       <c r="L26" s="37" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="M26" s="18"/>
       <c r="N26" s="21" t="str">
@@ -10215,7 +10207,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="65"/>
+      <c r="A27" s="72"/>
       <c r="B27" s="27">
         <v>6</v>
       </c>
@@ -10228,10 +10220,10 @@
         <v>6</v>
       </c>
       <c r="G27" s="35" t="s">
+        <v>303</v>
+      </c>
+      <c r="H27" s="36" t="s">
         <v>304</v>
-      </c>
-      <c r="H27" s="36" t="s">
-        <v>305</v>
       </c>
       <c r="I27" s="19">
         <v>0</v>
@@ -10244,7 +10236,7 @@
       </c>
       <c r="L27" s="18"/>
       <c r="M27" s="37" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N27" s="21" t="str">
         <f t="shared" si="0"/>
@@ -10252,7 +10244,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="65"/>
+      <c r="A28" s="72"/>
       <c r="B28" s="27">
         <v>6</v>
       </c>
@@ -10265,10 +10257,10 @@
         <v>6</v>
       </c>
       <c r="G28" s="35" t="s">
+        <v>305</v>
+      </c>
+      <c r="H28" s="36" t="s">
         <v>306</v>
-      </c>
-      <c r="H28" s="36" t="s">
-        <v>307</v>
       </c>
       <c r="I28" s="19">
         <v>0</v>
@@ -10280,7 +10272,7 @@
         <v>604</v>
       </c>
       <c r="L28" s="37" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M28" s="18"/>
       <c r="N28" s="21" t="str">
@@ -10289,7 +10281,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="65"/>
+      <c r="A29" s="72"/>
       <c r="B29" s="30">
         <v>6</v>
       </c>
@@ -10302,10 +10294,10 @@
         <v>6</v>
       </c>
       <c r="G29" s="35" t="s">
+        <v>308</v>
+      </c>
+      <c r="H29" s="36" t="s">
         <v>309</v>
-      </c>
-      <c r="H29" s="36" t="s">
-        <v>310</v>
       </c>
       <c r="I29" s="19">
         <v>0</v>
@@ -10317,7 +10309,7 @@
         <v>605</v>
       </c>
       <c r="L29" s="37" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M29" s="18"/>
       <c r="N29" s="21" t="str">
@@ -10326,7 +10318,7 @@
       </c>
     </row>
     <row r="30" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="65"/>
+      <c r="A30" s="72"/>
       <c r="B30" s="22">
         <v>7</v>
       </c>
@@ -10334,19 +10326,19 @@
         <v>14</v>
       </c>
       <c r="D30" s="33" t="s">
+        <v>310</v>
+      </c>
+      <c r="E30" s="34" t="s">
         <v>311</v>
-      </c>
-      <c r="E30" s="34" t="s">
-        <v>312</v>
       </c>
       <c r="F30" s="35">
         <v>7</v>
       </c>
       <c r="G30" s="35" t="s">
+        <v>312</v>
+      </c>
+      <c r="H30" s="36" t="s">
         <v>313</v>
-      </c>
-      <c r="H30" s="36" t="s">
-        <v>314</v>
       </c>
       <c r="I30" s="19">
         <v>0</v>
@@ -10359,7 +10351,7 @@
       </c>
       <c r="L30" s="18"/>
       <c r="M30" s="37" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="N30" s="21" t="str">
         <f t="shared" si="0"/>
@@ -10367,7 +10359,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="65"/>
+      <c r="A31" s="72"/>
       <c r="B31" s="27">
         <v>7</v>
       </c>
@@ -10380,10 +10372,10 @@
         <v>7</v>
       </c>
       <c r="G31" s="35" t="s">
+        <v>314</v>
+      </c>
+      <c r="H31" s="36" t="s">
         <v>315</v>
-      </c>
-      <c r="H31" s="36" t="s">
-        <v>316</v>
       </c>
       <c r="I31" s="19">
         <v>0</v>
@@ -10396,7 +10388,7 @@
       </c>
       <c r="L31" s="18"/>
       <c r="M31" s="37" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="N31" s="21" t="str">
         <f t="shared" si="0"/>
@@ -10404,7 +10396,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="65"/>
+      <c r="A32" s="72"/>
       <c r="B32" s="27">
         <v>7</v>
       </c>
@@ -10417,10 +10409,10 @@
         <v>7</v>
       </c>
       <c r="G32" s="35" t="s">
+        <v>317</v>
+      </c>
+      <c r="H32" s="36" t="s">
         <v>318</v>
-      </c>
-      <c r="H32" s="36" t="s">
-        <v>319</v>
       </c>
       <c r="I32" s="19">
         <v>0</v>
@@ -10433,7 +10425,7 @@
       </c>
       <c r="L32" s="18"/>
       <c r="M32" s="37" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="N32" s="21" t="str">
         <f t="shared" si="0"/>
@@ -10441,7 +10433,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="65"/>
+      <c r="A33" s="72"/>
       <c r="B33" s="27">
         <v>7</v>
       </c>
@@ -10454,10 +10446,10 @@
         <v>7</v>
       </c>
       <c r="G33" s="35" t="s">
+        <v>319</v>
+      </c>
+      <c r="H33" s="36" t="s">
         <v>320</v>
-      </c>
-      <c r="H33" s="36" t="s">
-        <v>321</v>
       </c>
       <c r="I33" s="19">
         <v>0</v>
@@ -10469,7 +10461,7 @@
         <v>704</v>
       </c>
       <c r="L33" s="37" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M33" s="18"/>
       <c r="N33" s="21" t="str">
@@ -10478,7 +10470,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="65"/>
+      <c r="A34" s="72"/>
       <c r="B34" s="27">
         <v>7</v>
       </c>
@@ -10491,10 +10483,10 @@
         <v>7</v>
       </c>
       <c r="G34" s="35" t="s">
+        <v>321</v>
+      </c>
+      <c r="H34" s="36" t="s">
         <v>322</v>
-      </c>
-      <c r="H34" s="36" t="s">
-        <v>323</v>
       </c>
       <c r="I34" s="19">
         <v>0</v>
@@ -10506,7 +10498,7 @@
         <v>705</v>
       </c>
       <c r="L34" s="37" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M34" s="18"/>
       <c r="N34" s="21" t="str">
@@ -10515,7 +10507,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="65"/>
+      <c r="A35" s="72"/>
       <c r="B35" s="22">
         <v>8</v>
       </c>
@@ -10523,19 +10515,19 @@
         <v>5</v>
       </c>
       <c r="D35" s="23" t="s">
+        <v>323</v>
+      </c>
+      <c r="E35" s="24" t="s">
         <v>324</v>
-      </c>
-      <c r="E35" s="24" t="s">
-        <v>325</v>
       </c>
       <c r="F35" s="35">
         <v>99</v>
       </c>
       <c r="G35" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="H35" s="25" t="s">
         <v>326</v>
-      </c>
-      <c r="H35" s="25" t="s">
-        <v>327</v>
       </c>
       <c r="I35" s="19">
         <v>0</v>
@@ -10554,7 +10546,7 @@
       </c>
     </row>
     <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="65"/>
+      <c r="A36" s="72"/>
       <c r="B36" s="27">
         <v>8</v>
       </c>
@@ -10567,10 +10559,10 @@
         <v>99</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I36" s="19">
         <v>0</v>
@@ -10589,7 +10581,7 @@
       </c>
     </row>
     <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="65"/>
+      <c r="A37" s="72"/>
       <c r="B37" s="27">
         <v>8</v>
       </c>
@@ -10602,10 +10594,10 @@
         <v>99</v>
       </c>
       <c r="G37" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="H37" s="25" t="s">
         <v>329</v>
-      </c>
-      <c r="H37" s="25" t="s">
-        <v>330</v>
       </c>
       <c r="I37" s="19">
         <v>0</v>
@@ -10624,7 +10616,7 @@
       </c>
     </row>
     <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="65"/>
+      <c r="A38" s="72"/>
       <c r="B38" s="27">
         <v>8</v>
       </c>
@@ -10637,10 +10629,10 @@
         <v>99</v>
       </c>
       <c r="G38" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="H38" s="25" t="s">
         <v>331</v>
-      </c>
-      <c r="H38" s="25" t="s">
-        <v>332</v>
       </c>
       <c r="I38" s="19">
         <v>0</v>
@@ -10659,7 +10651,7 @@
       </c>
     </row>
     <row r="39" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="65"/>
+      <c r="A39" s="72"/>
       <c r="B39" s="27">
         <v>8</v>
       </c>
@@ -10672,10 +10664,10 @@
         <v>99</v>
       </c>
       <c r="G39" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="H39" s="25" t="s">
         <v>333</v>
-      </c>
-      <c r="H39" s="25" t="s">
-        <v>334</v>
       </c>
       <c r="I39" s="19">
         <v>0</v>
@@ -10694,7 +10686,7 @@
       </c>
     </row>
     <row r="40" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="65"/>
+      <c r="A40" s="72"/>
       <c r="B40" s="27">
         <v>8</v>
       </c>
@@ -10707,10 +10699,10 @@
         <v>99</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I40" s="19">
         <v>0</v>
@@ -10729,7 +10721,7 @@
       </c>
     </row>
     <row r="41" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="65"/>
+      <c r="A41" s="72"/>
       <c r="B41" s="27">
         <v>8</v>
       </c>
@@ -10742,10 +10734,10 @@
         <v>99</v>
       </c>
       <c r="G41" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="H41" s="25" t="s">
         <v>336</v>
-      </c>
-      <c r="H41" s="25" t="s">
-        <v>337</v>
       </c>
       <c r="I41" s="19">
         <v>0</v>
@@ -10764,7 +10756,7 @@
       </c>
     </row>
     <row r="42" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="65"/>
+      <c r="A42" s="72"/>
       <c r="B42" s="27">
         <v>8</v>
       </c>
@@ -10777,10 +10769,10 @@
         <v>99</v>
       </c>
       <c r="G42" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="H42" s="25" t="s">
         <v>338</v>
-      </c>
-      <c r="H42" s="25" t="s">
-        <v>339</v>
       </c>
       <c r="I42" s="19">
         <v>0</v>
@@ -10799,7 +10791,7 @@
       </c>
     </row>
     <row r="43" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="65"/>
+      <c r="A43" s="72"/>
       <c r="B43" s="27">
         <v>8</v>
       </c>
@@ -10812,10 +10804,10 @@
         <v>99</v>
       </c>
       <c r="G43" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="H43" s="25" t="s">
         <v>340</v>
-      </c>
-      <c r="H43" s="25" t="s">
-        <v>341</v>
       </c>
       <c r="I43" s="19">
         <v>0</v>
@@ -10834,7 +10826,7 @@
       </c>
     </row>
     <row r="44" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="65"/>
+      <c r="A44" s="72"/>
       <c r="B44" s="27">
         <v>8</v>
       </c>
@@ -10847,10 +10839,10 @@
         <v>99</v>
       </c>
       <c r="G44" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="H44" s="25" t="s">
         <v>342</v>
-      </c>
-      <c r="H44" s="25" t="s">
-        <v>343</v>
       </c>
       <c r="I44" s="19">
         <v>0</v>
@@ -10869,7 +10861,7 @@
       </c>
     </row>
     <row r="45" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="65"/>
+      <c r="A45" s="72"/>
       <c r="B45" s="27">
         <v>8</v>
       </c>
@@ -10882,10 +10874,10 @@
         <v>99</v>
       </c>
       <c r="G45" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="H45" s="25" t="s">
         <v>344</v>
-      </c>
-      <c r="H45" s="25" t="s">
-        <v>345</v>
       </c>
       <c r="I45" s="19">
         <v>0</v>
@@ -10904,7 +10896,7 @@
       </c>
     </row>
     <row r="46" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="65"/>
+      <c r="A46" s="72"/>
       <c r="B46" s="27">
         <v>8</v>
       </c>
@@ -10917,10 +10909,10 @@
         <v>99</v>
       </c>
       <c r="G46" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="H46" s="25" t="s">
         <v>346</v>
-      </c>
-      <c r="H46" s="25" t="s">
-        <v>347</v>
       </c>
       <c r="I46" s="19">
         <v>0</v>
@@ -10939,7 +10931,7 @@
       </c>
     </row>
     <row r="47" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="65"/>
+      <c r="A47" s="72"/>
       <c r="B47" s="27">
         <v>8</v>
       </c>
@@ -10952,10 +10944,10 @@
         <v>99</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I47" s="19">
         <v>0</v>
@@ -10974,7 +10966,7 @@
       </c>
     </row>
     <row r="48" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="65"/>
+      <c r="A48" s="72"/>
       <c r="B48" s="27">
         <v>8</v>
       </c>
@@ -10987,10 +10979,10 @@
         <v>99</v>
       </c>
       <c r="G48" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="H48" s="25" t="s">
         <v>348</v>
-      </c>
-      <c r="H48" s="25" t="s">
-        <v>349</v>
       </c>
       <c r="I48" s="19">
         <v>0</v>
@@ -11009,7 +11001,7 @@
       </c>
     </row>
     <row r="49" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="65"/>
+      <c r="A49" s="72"/>
       <c r="B49" s="27">
         <v>8</v>
       </c>
@@ -11022,10 +11014,10 @@
         <v>99</v>
       </c>
       <c r="G49" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="H49" s="25" t="s">
         <v>350</v>
-      </c>
-      <c r="H49" s="25" t="s">
-        <v>351</v>
       </c>
       <c r="I49" s="19">
         <v>0</v>
@@ -11044,7 +11036,7 @@
       </c>
     </row>
     <row r="50" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="65"/>
+      <c r="A50" s="72"/>
       <c r="B50" s="27">
         <v>8</v>
       </c>
@@ -11057,10 +11049,10 @@
         <v>99</v>
       </c>
       <c r="G50" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="H50" s="25" t="s">
         <v>352</v>
-      </c>
-      <c r="H50" s="25" t="s">
-        <v>353</v>
       </c>
       <c r="I50" s="19">
         <v>0</v>
@@ -11079,7 +11071,7 @@
       </c>
     </row>
     <row r="51" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="65"/>
+      <c r="A51" s="72"/>
       <c r="B51" s="27">
         <v>8</v>
       </c>
@@ -11092,10 +11084,10 @@
         <v>99</v>
       </c>
       <c r="G51" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="H51" s="25" t="s">
         <v>354</v>
-      </c>
-      <c r="H51" s="25" t="s">
-        <v>355</v>
       </c>
       <c r="I51" s="19">
         <v>0</v>
@@ -11114,7 +11106,7 @@
       </c>
     </row>
     <row r="52" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="65"/>
+      <c r="A52" s="72"/>
       <c r="B52" s="27">
         <v>8</v>
       </c>
@@ -11127,10 +11119,10 @@
         <v>99</v>
       </c>
       <c r="G52" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="H52" s="25" t="s">
         <v>356</v>
-      </c>
-      <c r="H52" s="25" t="s">
-        <v>357</v>
       </c>
       <c r="I52" s="19">
         <v>0</v>
@@ -11149,7 +11141,7 @@
       </c>
     </row>
     <row r="53" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="65"/>
+      <c r="A53" s="72"/>
       <c r="B53" s="27">
         <v>8</v>
       </c>
@@ -11162,10 +11154,10 @@
         <v>99</v>
       </c>
       <c r="G53" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="H53" s="25" t="s">
         <v>358</v>
-      </c>
-      <c r="H53" s="25" t="s">
-        <v>359</v>
       </c>
       <c r="I53" s="19">
         <v>0</v>
@@ -11184,7 +11176,7 @@
       </c>
     </row>
     <row r="54" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="65"/>
+      <c r="A54" s="72"/>
       <c r="B54" s="30">
         <v>8</v>
       </c>
@@ -11197,10 +11189,10 @@
         <v>99</v>
       </c>
       <c r="G54" s="16" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="I54" s="19">
         <v>0</v>
@@ -11219,7 +11211,7 @@
       </c>
     </row>
     <row r="55" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="65"/>
+      <c r="A55" s="72"/>
       <c r="B55" s="22">
         <v>9</v>
       </c>
@@ -11227,19 +11219,19 @@
         <v>6</v>
       </c>
       <c r="D55" s="23" t="s">
+        <v>359</v>
+      </c>
+      <c r="E55" s="24" t="s">
         <v>360</v>
-      </c>
-      <c r="E55" s="24" t="s">
-        <v>361</v>
       </c>
       <c r="F55" s="35">
         <v>901</v>
       </c>
       <c r="G55" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="H55" s="25" t="s">
         <v>362</v>
-      </c>
-      <c r="H55" s="25" t="s">
-        <v>363</v>
       </c>
       <c r="I55" s="19">
         <v>0</v>
@@ -11258,7 +11250,7 @@
       </c>
     </row>
     <row r="56" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="65"/>
+      <c r="A56" s="72"/>
       <c r="B56" s="27">
         <v>9</v>
       </c>
@@ -11271,10 +11263,10 @@
         <v>901</v>
       </c>
       <c r="G56" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="H56" s="25" t="s">
         <v>364</v>
-      </c>
-      <c r="H56" s="25" t="s">
-        <v>365</v>
       </c>
       <c r="I56" s="19">
         <v>0</v>
@@ -11293,7 +11285,7 @@
       </c>
     </row>
     <row r="57" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="65"/>
+      <c r="A57" s="72"/>
       <c r="B57" s="27">
         <v>9</v>
       </c>
@@ -11306,10 +11298,10 @@
         <v>901</v>
       </c>
       <c r="G57" s="16" t="s">
+        <v>365</v>
+      </c>
+      <c r="H57" s="25" t="s">
         <v>366</v>
-      </c>
-      <c r="H57" s="25" t="s">
-        <v>367</v>
       </c>
       <c r="I57" s="19">
         <v>0</v>
@@ -11328,7 +11320,7 @@
       </c>
     </row>
     <row r="58" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="65"/>
+      <c r="A58" s="72"/>
       <c r="B58" s="27">
         <v>9</v>
       </c>
@@ -11341,10 +11333,10 @@
         <v>901</v>
       </c>
       <c r="G58" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="H58" s="25" t="s">
         <v>368</v>
-      </c>
-      <c r="H58" s="25" t="s">
-        <v>369</v>
       </c>
       <c r="I58" s="19">
         <v>0</v>
@@ -11363,7 +11355,7 @@
       </c>
     </row>
     <row r="59" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="65"/>
+      <c r="A59" s="72"/>
       <c r="B59" s="27">
         <v>9</v>
       </c>
@@ -11376,10 +11368,10 @@
         <v>901</v>
       </c>
       <c r="G59" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="H59" s="25" t="s">
         <v>370</v>
-      </c>
-      <c r="H59" s="25" t="s">
-        <v>371</v>
       </c>
       <c r="I59" s="19">
         <v>0</v>
@@ -11398,7 +11390,7 @@
       </c>
     </row>
     <row r="60" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="65"/>
+      <c r="A60" s="72"/>
       <c r="B60" s="30">
         <v>9</v>
       </c>
@@ -11411,10 +11403,10 @@
         <v>901</v>
       </c>
       <c r="G60" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H60" s="25" t="s">
         <v>372</v>
-      </c>
-      <c r="H60" s="25" t="s">
-        <v>373</v>
       </c>
       <c r="I60" s="19">
         <v>0</v>
@@ -11433,7 +11425,7 @@
       </c>
     </row>
     <row r="61" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="65"/>
+      <c r="A61" s="72"/>
       <c r="B61" s="22">
         <v>10</v>
       </c>
@@ -11441,19 +11433,19 @@
         <v>7</v>
       </c>
       <c r="D61" s="23" t="s">
+        <v>373</v>
+      </c>
+      <c r="E61" s="24" t="s">
         <v>374</v>
-      </c>
-      <c r="E61" s="24" t="s">
-        <v>375</v>
       </c>
       <c r="F61" s="35">
         <v>902</v>
       </c>
       <c r="G61" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="H61" s="25" t="s">
         <v>376</v>
-      </c>
-      <c r="H61" s="25" t="s">
-        <v>377</v>
       </c>
       <c r="I61" s="19">
         <v>0</v>
@@ -11472,7 +11464,7 @@
       </c>
     </row>
     <row r="62" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="65"/>
+      <c r="A62" s="72"/>
       <c r="B62" s="27">
         <v>10</v>
       </c>
@@ -11485,10 +11477,10 @@
         <v>902</v>
       </c>
       <c r="G62" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="H62" s="25" t="s">
         <v>378</v>
-      </c>
-      <c r="H62" s="25" t="s">
-        <v>379</v>
       </c>
       <c r="I62" s="19">
         <v>0</v>
@@ -11507,7 +11499,7 @@
       </c>
     </row>
     <row r="63" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="65"/>
+      <c r="A63" s="72"/>
       <c r="B63" s="27">
         <v>10</v>
       </c>
@@ -11520,10 +11512,10 @@
         <v>902</v>
       </c>
       <c r="G63" s="16" t="s">
+        <v>379</v>
+      </c>
+      <c r="H63" s="25" t="s">
         <v>380</v>
-      </c>
-      <c r="H63" s="25" t="s">
-        <v>381</v>
       </c>
       <c r="I63" s="19">
         <v>0</v>
@@ -11542,7 +11534,7 @@
       </c>
     </row>
     <row r="64" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="65"/>
+      <c r="A64" s="72"/>
       <c r="B64" s="30">
         <v>10</v>
       </c>
@@ -11555,10 +11547,10 @@
         <v>902</v>
       </c>
       <c r="G64" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="H64" s="25" t="s">
         <v>382</v>
-      </c>
-      <c r="H64" s="25" t="s">
-        <v>383</v>
       </c>
       <c r="I64" s="19">
         <v>0</v>
@@ -11577,7 +11569,7 @@
       </c>
     </row>
     <row r="65" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="65"/>
+      <c r="A65" s="72"/>
       <c r="B65" s="22">
         <v>11</v>
       </c>
@@ -11585,19 +11577,19 @@
         <v>8</v>
       </c>
       <c r="D65" s="23" t="s">
+        <v>383</v>
+      </c>
+      <c r="E65" s="24" t="s">
         <v>384</v>
-      </c>
-      <c r="E65" s="24" t="s">
-        <v>385</v>
       </c>
       <c r="F65" s="35">
         <v>903</v>
       </c>
       <c r="G65" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="H65" s="25" t="s">
         <v>386</v>
-      </c>
-      <c r="H65" s="25" t="s">
-        <v>387</v>
       </c>
       <c r="I65" s="19">
         <v>0</v>
@@ -11616,7 +11608,7 @@
       </c>
     </row>
     <row r="66" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="65"/>
+      <c r="A66" s="72"/>
       <c r="B66" s="27">
         <v>11</v>
       </c>
@@ -11629,10 +11621,10 @@
         <v>903</v>
       </c>
       <c r="G66" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="H66" s="25" t="s">
         <v>388</v>
-      </c>
-      <c r="H66" s="25" t="s">
-        <v>389</v>
       </c>
       <c r="I66" s="19">
         <v>0</v>
@@ -11651,7 +11643,7 @@
       </c>
     </row>
     <row r="67" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="65"/>
+      <c r="A67" s="72"/>
       <c r="B67" s="30">
         <v>11</v>
       </c>
@@ -11664,10 +11656,10 @@
         <v>903</v>
       </c>
       <c r="G67" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="H67" s="25" t="s">
         <v>390</v>
-      </c>
-      <c r="H67" s="25" t="s">
-        <v>391</v>
       </c>
       <c r="I67" s="19">
         <v>0</v>
@@ -11686,8 +11678,8 @@
       </c>
     </row>
     <row r="68" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="66" t="s">
-        <v>392</v>
+      <c r="A68" s="73" t="s">
+        <v>391</v>
       </c>
       <c r="B68" s="22">
         <v>12</v>
@@ -11696,19 +11688,19 @@
         <v>9</v>
       </c>
       <c r="D68" s="23" t="s">
+        <v>392</v>
+      </c>
+      <c r="E68" s="24" t="s">
         <v>393</v>
-      </c>
-      <c r="E68" s="24" t="s">
-        <v>394</v>
       </c>
       <c r="F68" s="35">
         <v>951</v>
       </c>
       <c r="G68" s="16" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H68" s="25" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I68" s="19">
         <v>0</v>
@@ -11727,7 +11719,7 @@
       </c>
     </row>
     <row r="69" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="67"/>
+      <c r="A69" s="74"/>
       <c r="B69" s="27">
         <v>12</v>
       </c>
@@ -11740,10 +11732,10 @@
         <v>951</v>
       </c>
       <c r="G69" s="35" t="s">
+        <v>395</v>
+      </c>
+      <c r="H69" s="36" t="s">
         <v>396</v>
-      </c>
-      <c r="H69" s="36" t="s">
-        <v>397</v>
       </c>
       <c r="I69" s="19">
         <v>0</v>
@@ -11755,7 +11747,7 @@
         <v>95102</v>
       </c>
       <c r="L69" s="37" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="M69" s="18"/>
       <c r="N69" s="21" t="str">
@@ -11764,7 +11756,7 @@
       </c>
     </row>
     <row r="70" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="67"/>
+      <c r="A70" s="74"/>
       <c r="B70" s="27">
         <v>12</v>
       </c>
@@ -11777,10 +11769,10 @@
         <v>951</v>
       </c>
       <c r="G70" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="H70" s="25" t="s">
         <v>399</v>
-      </c>
-      <c r="H70" s="25" t="s">
-        <v>400</v>
       </c>
       <c r="I70" s="19">
         <v>0</v>
@@ -11799,7 +11791,7 @@
       </c>
     </row>
     <row r="71" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="67"/>
+      <c r="A71" s="74"/>
       <c r="B71" s="27">
         <v>12</v>
       </c>
@@ -11812,10 +11804,10 @@
         <v>951</v>
       </c>
       <c r="G71" s="35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H71" s="36" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I71" s="19">
         <v>0</v>
@@ -11827,7 +11819,7 @@
         <v>95104</v>
       </c>
       <c r="L71" s="37" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="M71" s="18"/>
       <c r="N71" s="21" t="str">
@@ -11836,7 +11828,7 @@
       </c>
     </row>
     <row r="72" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="67"/>
+      <c r="A72" s="74"/>
       <c r="B72" s="27">
         <v>12</v>
       </c>
@@ -11849,10 +11841,10 @@
         <v>951</v>
       </c>
       <c r="G72" s="35" t="s">
+        <v>401</v>
+      </c>
+      <c r="H72" s="36" t="s">
         <v>402</v>
-      </c>
-      <c r="H72" s="36" t="s">
-        <v>403</v>
       </c>
       <c r="I72" s="19">
         <v>0</v>
@@ -11864,7 +11856,7 @@
         <v>95105</v>
       </c>
       <c r="L72" s="37" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="M72" s="18"/>
       <c r="N72" s="21" t="str">
@@ -11873,7 +11865,7 @@
       </c>
     </row>
     <row r="73" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="67"/>
+      <c r="A73" s="74"/>
       <c r="B73" s="27">
         <v>12</v>
       </c>
@@ -11886,10 +11878,10 @@
         <v>951</v>
       </c>
       <c r="G73" s="35" t="s">
+        <v>403</v>
+      </c>
+      <c r="H73" s="36" t="s">
         <v>404</v>
-      </c>
-      <c r="H73" s="36" t="s">
-        <v>405</v>
       </c>
       <c r="I73" s="19">
         <v>0</v>
@@ -11901,7 +11893,7 @@
         <v>95106</v>
       </c>
       <c r="L73" s="37" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="M73" s="18"/>
       <c r="N73" s="21" t="str">
@@ -11910,7 +11902,7 @@
       </c>
     </row>
     <row r="74" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="67"/>
+      <c r="A74" s="74"/>
       <c r="B74" s="22">
         <v>13</v>
       </c>
@@ -11918,19 +11910,19 @@
         <v>10</v>
       </c>
       <c r="D74" s="23" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E74" s="24" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F74" s="35">
         <v>952</v>
       </c>
       <c r="G74" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="H74" s="42" t="s">
         <v>407</v>
-      </c>
-      <c r="H74" s="42" t="s">
-        <v>408</v>
       </c>
       <c r="I74" s="19">
         <v>0</v>
@@ -11949,7 +11941,7 @@
       </c>
     </row>
     <row r="75" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="67"/>
+      <c r="A75" s="74"/>
       <c r="B75" s="27">
         <v>13</v>
       </c>
@@ -11962,10 +11954,10 @@
         <v>952</v>
       </c>
       <c r="G75" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="H75" s="25" t="s">
         <v>409</v>
-      </c>
-      <c r="H75" s="25" t="s">
-        <v>410</v>
       </c>
       <c r="I75" s="19">
         <v>0</v>
@@ -11984,7 +11976,7 @@
       </c>
     </row>
     <row r="76" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="67"/>
+      <c r="A76" s="74"/>
       <c r="B76" s="27">
         <v>13</v>
       </c>
@@ -11997,10 +11989,10 @@
         <v>952</v>
       </c>
       <c r="G76" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="H76" s="25" t="s">
         <v>411</v>
-      </c>
-      <c r="H76" s="25" t="s">
-        <v>412</v>
       </c>
       <c r="I76" s="19">
         <v>0</v>
@@ -12019,7 +12011,7 @@
       </c>
     </row>
     <row r="77" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="67"/>
+      <c r="A77" s="74"/>
       <c r="B77" s="27">
         <v>13</v>
       </c>
@@ -12032,10 +12024,10 @@
         <v>952</v>
       </c>
       <c r="G77" s="16" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H77" s="25" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I77" s="19">
         <v>0</v>
@@ -12054,7 +12046,7 @@
       </c>
     </row>
     <row r="78" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="67"/>
+      <c r="A78" s="74"/>
       <c r="B78" s="30">
         <v>13</v>
       </c>
@@ -12067,10 +12059,10 @@
         <v>952</v>
       </c>
       <c r="G78" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="H78" s="25" t="s">
         <v>414</v>
-      </c>
-      <c r="H78" s="25" t="s">
-        <v>415</v>
       </c>
       <c r="I78" s="19">
         <v>0</v>
@@ -12089,7 +12081,7 @@
       </c>
     </row>
     <row r="79" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="67"/>
+      <c r="A79" s="74"/>
       <c r="B79" s="22">
         <v>14</v>
       </c>
@@ -12097,19 +12089,19 @@
         <v>11</v>
       </c>
       <c r="D79" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="E79" s="24" t="s">
         <v>416</v>
-      </c>
-      <c r="E79" s="24" t="s">
-        <v>417</v>
       </c>
       <c r="F79" s="35">
         <v>953</v>
       </c>
       <c r="G79" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="H79" s="25" t="s">
         <v>418</v>
-      </c>
-      <c r="H79" s="25" t="s">
-        <v>419</v>
       </c>
       <c r="I79" s="19">
         <v>0</v>
@@ -12128,7 +12120,7 @@
       </c>
     </row>
     <row r="80" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="67"/>
+      <c r="A80" s="74"/>
       <c r="B80" s="30">
         <v>14</v>
       </c>
@@ -12141,10 +12133,10 @@
         <v>953</v>
       </c>
       <c r="G80" s="16" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H80" s="25" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="I80" s="19">
         <v>0</v>
@@ -12163,7 +12155,7 @@
       </c>
     </row>
     <row r="81" spans="1:14" ht="15" x14ac:dyDescent="0.15">
-      <c r="A81" s="67"/>
+      <c r="A81" s="74"/>
       <c r="B81" s="48">
         <v>15</v>
       </c>
@@ -12171,19 +12163,19 @@
         <v>12</v>
       </c>
       <c r="D81" s="23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E81" s="23" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="F81" s="35">
         <v>954</v>
       </c>
       <c r="G81" s="16" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="H81" s="25" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="I81" s="19">
         <v>0</v>
@@ -12202,7 +12194,7 @@
       </c>
     </row>
     <row r="82" spans="1:14" ht="15" x14ac:dyDescent="0.15">
-      <c r="A82" s="67"/>
+      <c r="A82" s="74"/>
       <c r="B82" s="49">
         <v>15</v>
       </c>
@@ -12215,10 +12207,10 @@
         <v>954</v>
       </c>
       <c r="G82" s="16" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="H82" s="25" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="I82" s="19">
         <v>0</v>
@@ -12237,7 +12229,7 @@
       </c>
     </row>
     <row r="83" spans="1:14" ht="15" x14ac:dyDescent="0.15">
-      <c r="A83" s="67"/>
+      <c r="A83" s="74"/>
       <c r="B83" s="50">
         <v>15</v>
       </c>
@@ -12250,10 +12242,10 @@
         <v>954</v>
       </c>
       <c r="G83" s="16" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H83" s="25" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="I83" s="19">
         <v>0</v>
@@ -13035,14 +13027,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72" t="s">
+      <c r="C1" s="79"/>
+      <c r="D1" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="72"/>
+      <c r="E1" s="79"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
@@ -13059,7 +13051,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="80" t="s">
         <v>132</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -13076,7 +13068,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="73"/>
+      <c r="A4" s="80"/>
       <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
@@ -13085,7 +13077,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="73"/>
+      <c r="A5" s="80"/>
       <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
@@ -13094,7 +13086,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="73"/>
+      <c r="A6" s="80"/>
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
@@ -13103,13 +13095,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="73"/>
+      <c r="A7" s="80"/>
       <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="73"/>
+      <c r="A8" s="80"/>
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
@@ -13118,37 +13110,37 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="73"/>
+      <c r="A9" s="80"/>
       <c r="D9" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="73"/>
+      <c r="A10" s="80"/>
       <c r="D10" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="73"/>
+      <c r="A11" s="80"/>
       <c r="D11" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="73"/>
+      <c r="A12" s="80"/>
       <c r="D12" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="73"/>
+      <c r="A13" s="80"/>
       <c r="D13" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="73"/>
+      <c r="A14" s="80"/>
       <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
@@ -13157,37 +13149,37 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="73"/>
+      <c r="A15" s="80"/>
       <c r="D15" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="73"/>
+      <c r="A16" s="80"/>
       <c r="D16" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="73"/>
+      <c r="A17" s="80"/>
       <c r="D17" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="73"/>
+      <c r="A18" s="80"/>
       <c r="D18" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="73"/>
+      <c r="A19" s="80"/>
       <c r="D19" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="73"/>
+      <c r="A20" s="80"/>
       <c r="B20" s="1" t="s">
         <v>25</v>
       </c>
@@ -13196,25 +13188,25 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="73"/>
+      <c r="A21" s="80"/>
       <c r="D21" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="73"/>
+      <c r="A22" s="80"/>
       <c r="D22" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="73"/>
+      <c r="A23" s="80"/>
       <c r="D23" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="73"/>
+      <c r="A24" s="80"/>
       <c r="B24" s="1" t="s">
         <v>30</v>
       </c>
@@ -13223,19 +13215,19 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="73"/>
+      <c r="A25" s="80"/>
       <c r="D25" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="73"/>
+      <c r="A26" s="80"/>
       <c r="D26" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="73"/>
+      <c r="A27" s="80"/>
       <c r="B27" s="1" t="s">
         <v>34</v>
       </c>
@@ -13244,25 +13236,25 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="73"/>
+      <c r="A28" s="80"/>
       <c r="D28" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="73"/>
+      <c r="A29" s="80"/>
       <c r="D29" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="73"/>
+      <c r="A30" s="80"/>
       <c r="D30" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="73"/>
+      <c r="A31" s="80"/>
       <c r="B31" s="1" t="s">
         <v>39</v>
       </c>
@@ -13271,19 +13263,19 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" s="73"/>
+      <c r="A32" s="80"/>
       <c r="D32" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" s="73"/>
+      <c r="A33" s="80"/>
       <c r="D33" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="73"/>
+      <c r="A34" s="80"/>
       <c r="B34" s="1" t="s">
         <v>42</v>
       </c>
@@ -13292,19 +13284,19 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="73"/>
+      <c r="A35" s="80"/>
       <c r="D35" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="73"/>
+      <c r="A36" s="80"/>
       <c r="D36" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="73"/>
+      <c r="A37" s="80"/>
       <c r="B37" s="1" t="s">
         <v>46</v>
       </c>
@@ -13313,67 +13305,67 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="73"/>
+      <c r="A38" s="80"/>
       <c r="D38" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="73"/>
+      <c r="A39" s="80"/>
       <c r="D39" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A40" s="73"/>
+      <c r="A40" s="80"/>
       <c r="D40" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41" s="73"/>
+      <c r="A41" s="80"/>
       <c r="D41" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A42" s="73"/>
+      <c r="A42" s="80"/>
       <c r="D42" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A43" s="73"/>
+      <c r="A43" s="80"/>
       <c r="D43" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" s="73"/>
+      <c r="A44" s="80"/>
       <c r="D44" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="73"/>
+      <c r="A45" s="80"/>
       <c r="D45" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="73"/>
+      <c r="A46" s="80"/>
       <c r="D46" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="73"/>
+      <c r="A47" s="80"/>
       <c r="D47" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="73"/>
+      <c r="A48" s="80"/>
       <c r="B48" s="1" t="s">
         <v>57</v>
       </c>
@@ -13382,43 +13374,43 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" s="73"/>
+      <c r="A49" s="80"/>
       <c r="D49" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A50" s="73"/>
+      <c r="A50" s="80"/>
       <c r="D50" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A51" s="73"/>
+      <c r="A51" s="80"/>
       <c r="D51" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A52" s="73"/>
+      <c r="A52" s="80"/>
       <c r="D52" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A53" s="73"/>
+      <c r="A53" s="80"/>
       <c r="D53" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A54" s="73"/>
+      <c r="A54" s="80"/>
       <c r="D54" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="73"/>
+      <c r="A55" s="80"/>
       <c r="B55" s="1" t="s">
         <v>64</v>
       </c>
@@ -13427,25 +13419,25 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" s="73"/>
+      <c r="A56" s="80"/>
       <c r="D56" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="73"/>
+      <c r="A57" s="80"/>
       <c r="D57" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A58" s="73"/>
+      <c r="A58" s="80"/>
       <c r="D58" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A59" s="73"/>
+      <c r="A59" s="80"/>
       <c r="B59" s="1" t="s">
         <v>68</v>
       </c>
@@ -13454,55 +13446,55 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A60" s="73"/>
+      <c r="A60" s="80"/>
       <c r="D60" s="1" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A61" s="73"/>
+      <c r="A61" s="80"/>
       <c r="D61" s="1" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A62" s="73"/>
+      <c r="A62" s="80"/>
       <c r="D62" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A63" s="73"/>
+      <c r="A63" s="80"/>
       <c r="D63" s="1" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A64" s="73"/>
+      <c r="A64" s="80"/>
       <c r="D64" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A65" s="73"/>
+      <c r="A65" s="80"/>
       <c r="D65" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A66" s="73"/>
+      <c r="A66" s="80"/>
       <c r="D66" s="1" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A67" s="73"/>
+      <c r="A67" s="80"/>
       <c r="D67" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A68" s="73"/>
+      <c r="A68" s="80"/>
       <c r="B68" s="1" t="s">
         <v>77</v>
       </c>
@@ -13511,19 +13503,19 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A69" s="73"/>
+      <c r="A69" s="80"/>
       <c r="D69" s="1" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A70" s="73"/>
+      <c r="A70" s="80"/>
       <c r="D70" s="1" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A71" s="73"/>
+      <c r="A71" s="80"/>
       <c r="B71" s="1" t="s">
         <v>81</v>
       </c>
@@ -13532,25 +13524,25 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A72" s="73"/>
+      <c r="A72" s="80"/>
       <c r="D72" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A73" s="73"/>
+      <c r="A73" s="80"/>
       <c r="D73" s="1" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A74" s="73"/>
+      <c r="A74" s="80"/>
       <c r="D74" s="1" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A75" s="73"/>
+      <c r="A75" s="80"/>
       <c r="B75" s="1" t="s">
         <v>86</v>
       </c>
@@ -13559,37 +13551,37 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A76" s="73"/>
+      <c r="A76" s="80"/>
       <c r="D76" s="1" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A77" s="73"/>
+      <c r="A77" s="80"/>
       <c r="D77" s="1" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A78" s="73"/>
+      <c r="A78" s="80"/>
       <c r="D78" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A79" s="73"/>
+      <c r="A79" s="80"/>
       <c r="D79" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A80" s="73"/>
+      <c r="A80" s="80"/>
       <c r="D80" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A81" s="73"/>
+      <c r="A81" s="80"/>
       <c r="B81" s="1" t="s">
         <v>92</v>
       </c>
@@ -13598,49 +13590,49 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A82" s="73"/>
+      <c r="A82" s="80"/>
       <c r="D82" s="1" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A83" s="73"/>
+      <c r="A83" s="80"/>
       <c r="D83" s="1" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A84" s="73"/>
+      <c r="A84" s="80"/>
       <c r="D84" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A85" s="73"/>
+      <c r="A85" s="80"/>
       <c r="D85" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A86" s="73"/>
+      <c r="A86" s="80"/>
       <c r="D86" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A87" s="73"/>
+      <c r="A87" s="80"/>
       <c r="D87" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A88" s="73"/>
+      <c r="A88" s="80"/>
       <c r="D88" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A89" s="73" t="s">
+      <c r="A89" s="80" t="s">
         <v>100</v>
       </c>
       <c r="B89" s="1" t="s">
@@ -13651,67 +13643,67 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A90" s="73"/>
+      <c r="A90" s="80"/>
       <c r="D90" s="1" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A91" s="73"/>
+      <c r="A91" s="80"/>
       <c r="D91" s="1" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A92" s="73"/>
+      <c r="A92" s="80"/>
       <c r="D92" s="1" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A93" s="73"/>
+      <c r="A93" s="80"/>
       <c r="D93" s="1" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A94" s="73"/>
+      <c r="A94" s="80"/>
       <c r="D94" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A95" s="73"/>
+      <c r="A95" s="80"/>
       <c r="D95" s="1" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A96" s="73"/>
+      <c r="A96" s="80"/>
       <c r="D96" s="1" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A97" s="73"/>
+      <c r="A97" s="80"/>
       <c r="D97" s="1" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A98" s="73"/>
+      <c r="A98" s="80"/>
       <c r="D98" s="1" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A99" s="73"/>
+      <c r="A99" s="80"/>
       <c r="D99" s="1" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A100" s="73"/>
+      <c r="A100" s="80"/>
       <c r="B100" s="1" t="s">
         <v>113</v>
       </c>
@@ -13720,67 +13712,67 @@
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A101" s="73"/>
+      <c r="A101" s="80"/>
       <c r="D101" s="1" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A102" s="73"/>
+      <c r="A102" s="80"/>
       <c r="D102" s="1" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A103" s="73"/>
+      <c r="A103" s="80"/>
       <c r="D103" s="1" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A104" s="73"/>
+      <c r="A104" s="80"/>
       <c r="D104" s="1" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A105" s="73"/>
+      <c r="A105" s="80"/>
       <c r="D105" s="1" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A106" s="73"/>
+      <c r="A106" s="80"/>
       <c r="D106" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A107" s="73"/>
+      <c r="A107" s="80"/>
       <c r="D107" s="1" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A108" s="73"/>
+      <c r="A108" s="80"/>
       <c r="D108" s="1" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A109" s="73"/>
+      <c r="A109" s="80"/>
       <c r="D109" s="1" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A110" s="73"/>
+      <c r="A110" s="80"/>
       <c r="D110" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A111" s="73"/>
+      <c r="A111" s="80"/>
       <c r="B111" s="1" t="s">
         <v>124</v>
       </c>
@@ -13789,37 +13781,37 @@
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A112" s="73"/>
+      <c r="A112" s="80"/>
       <c r="D112" s="1" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A113" s="73"/>
+      <c r="A113" s="80"/>
       <c r="D113" s="1" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A114" s="73"/>
+      <c r="A114" s="80"/>
       <c r="D114" s="1" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A115" s="73"/>
+      <c r="A115" s="80"/>
       <c r="D115" s="1" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A116" s="73"/>
+      <c r="A116" s="80"/>
       <c r="D116" s="1" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A117" s="73"/>
+      <c r="A117" s="80"/>
       <c r="D117" s="1" t="s">
         <v>131</v>
       </c>
@@ -13848,25 +13840,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B1" t="s">
         <v>511</v>
       </c>
-      <c r="B1" t="s">
-        <v>513</v>
-      </c>
       <c r="C1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D1" t="s">
+        <v>514</v>
+      </c>
+      <c r="E1" t="s">
+        <v>515</v>
+      </c>
+      <c r="F1" t="s">
         <v>516</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>517</v>
-      </c>
-      <c r="F1" t="s">
-        <v>518</v>
-      </c>
-      <c r="G1" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -13874,7 +13866,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -13897,7 +13889,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -13920,7 +13912,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -13943,7 +13935,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -13989,7 +13981,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -14012,7 +14004,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -14035,7 +14027,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -14058,7 +14050,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -14081,7 +14073,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -14104,7 +14096,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -14127,7 +14119,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -14150,7 +14142,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -14173,7 +14165,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -14196,7 +14188,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -14224,8 +14216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14237,34 +14229,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="56" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="B1" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="C1" t="s">
+        <v>510</v>
+      </c>
+      <c r="D1" t="s">
+        <v>511</v>
+      </c>
+      <c r="E1" t="s">
         <v>512</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>513</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>514</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>515</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>516</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>517</v>
-      </c>
-      <c r="I1" t="s">
-        <v>518</v>
-      </c>
-      <c r="J1" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
@@ -14278,7 +14270,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E2">
         <v>300000</v>
@@ -14311,7 +14303,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="58" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E3">
         <v>3000</v>
@@ -14344,7 +14336,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="58" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E4">
         <v>4500</v>
@@ -14377,7 +14369,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="58" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -14410,7 +14402,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="58" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E6">
         <v>5000</v>
@@ -14443,7 +14435,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="58" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -14476,7 +14468,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -14509,7 +14501,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -14542,7 +14534,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="58" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -14575,7 +14567,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="58" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E11">
         <v>10000</v>
@@ -14608,7 +14600,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="58" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -14641,7 +14633,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="58" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -14674,7 +14666,7 @@
         <v>3</v>
       </c>
       <c r="D14" s="58" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -14740,7 +14732,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="58" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -14773,7 +14765,7 @@
         <v>4</v>
       </c>
       <c r="D17" s="58" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -14806,7 +14798,7 @@
         <v>4</v>
       </c>
       <c r="D18" s="58" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -14839,7 +14831,7 @@
         <v>4</v>
       </c>
       <c r="D19" s="58" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -14872,7 +14864,7 @@
         <v>5</v>
       </c>
       <c r="D20" s="58" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -14905,7 +14897,7 @@
         <v>5</v>
       </c>
       <c r="D21" s="58" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -14938,7 +14930,7 @@
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -14971,7 +14963,7 @@
         <v>5</v>
       </c>
       <c r="D23" s="58" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -15004,7 +14996,7 @@
         <v>5</v>
       </c>
       <c r="D24" s="58" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -15037,7 +15029,7 @@
         <v>12</v>
       </c>
       <c r="D25" s="58" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -15070,7 +15062,7 @@
         <v>14</v>
       </c>
       <c r="D26" s="58" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -15103,7 +15095,7 @@
         <v>5</v>
       </c>
       <c r="D27" s="58" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -15136,7 +15128,7 @@
         <v>14</v>
       </c>
       <c r="D28" s="58" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -15169,7 +15161,7 @@
         <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -15202,7 +15194,7 @@
         <v>5</v>
       </c>
       <c r="D30" s="58" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -15235,7 +15227,7 @@
         <v>5</v>
       </c>
       <c r="D31" s="58" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -15268,7 +15260,7 @@
         <v>5</v>
       </c>
       <c r="D32" s="58" t="s">
-        <v>547</v>
+        <v>671</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -15301,7 +15293,7 @@
         <v>14</v>
       </c>
       <c r="D33" s="58" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -15334,7 +15326,7 @@
         <v>5</v>
       </c>
       <c r="D34" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -15367,7 +15359,7 @@
         <v>5</v>
       </c>
       <c r="D35" s="58" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="E35">
         <v>2800</v>
@@ -15400,7 +15392,7 @@
         <v>13</v>
       </c>
       <c r="D36" s="58" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -15433,7 +15425,7 @@
         <v>5</v>
       </c>
       <c r="D37" s="58" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -15466,7 +15458,7 @@
         <v>5</v>
       </c>
       <c r="D38" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -15499,7 +15491,7 @@
         <v>5</v>
       </c>
       <c r="D39" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -15532,7 +15524,7 @@
         <v>5</v>
       </c>
       <c r="D40" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -15565,7 +15557,7 @@
         <v>5</v>
       </c>
       <c r="D41" s="58" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -15598,7 +15590,7 @@
         <v>5</v>
       </c>
       <c r="D42" s="58" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -15631,7 +15623,7 @@
         <v>5</v>
       </c>
       <c r="D43" s="58" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -15664,7 +15656,7 @@
         <v>6</v>
       </c>
       <c r="D44" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -15697,7 +15689,7 @@
         <v>6</v>
       </c>
       <c r="D45" s="58" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -15730,7 +15722,7 @@
         <v>6</v>
       </c>
       <c r="D46" s="58" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -15763,7 +15755,7 @@
         <v>6</v>
       </c>
       <c r="D47" s="58" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -15796,7 +15788,7 @@
         <v>6</v>
       </c>
       <c r="D48" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -15829,7 +15821,7 @@
         <v>6</v>
       </c>
       <c r="D49" s="58" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -15862,7 +15854,7 @@
         <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -15895,7 +15887,7 @@
         <v>7</v>
       </c>
       <c r="D51" s="58" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -15928,7 +15920,7 @@
         <v>7</v>
       </c>
       <c r="D52" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -15961,7 +15953,7 @@
         <v>7</v>
       </c>
       <c r="D53" s="58" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -15994,7 +15986,7 @@
         <v>8</v>
       </c>
       <c r="D54" s="58" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -16027,7 +16019,7 @@
         <v>8</v>
       </c>
       <c r="D55" s="58" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -16060,7 +16052,7 @@
         <v>8</v>
       </c>
       <c r="D56" s="58" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -16093,7 +16085,7 @@
         <v>9</v>
       </c>
       <c r="D57" s="58" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -16126,7 +16118,7 @@
         <v>9</v>
       </c>
       <c r="D58" s="58" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -16159,7 +16151,7 @@
         <v>10</v>
       </c>
       <c r="D59" s="58" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -16192,7 +16184,7 @@
         <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -16225,7 +16217,7 @@
         <v>10</v>
       </c>
       <c r="D61" s="58" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -16291,7 +16283,7 @@
         <v>10</v>
       </c>
       <c r="D63" s="58" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -16324,7 +16316,7 @@
         <v>11</v>
       </c>
       <c r="D64" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -16357,7 +16349,7 @@
         <v>11</v>
       </c>
       <c r="D65" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -16456,7 +16448,7 @@
         <v>13</v>
       </c>
       <c r="D68" s="58" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -16489,7 +16481,7 @@
         <v>13</v>
       </c>
       <c r="D69" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -16522,7 +16514,7 @@
         <v>13</v>
       </c>
       <c r="D70" s="58" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -16555,7 +16547,7 @@
         <v>13</v>
       </c>
       <c r="D71" s="58" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -16588,7 +16580,7 @@
         <v>14</v>
       </c>
       <c r="D72" s="58" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -16621,7 +16613,7 @@
         <v>14</v>
       </c>
       <c r="D73" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -16654,7 +16646,7 @@
         <v>9</v>
       </c>
       <c r="D74" s="58" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -16687,7 +16679,7 @@
         <v>9</v>
       </c>
       <c r="D75" s="58" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -16720,7 +16712,7 @@
         <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -16753,7 +16745,7 @@
         <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -16786,7 +16778,7 @@
         <v>15</v>
       </c>
       <c r="D78" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -16819,7 +16811,7 @@
         <v>15</v>
       </c>
       <c r="D79" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -16852,7 +16844,7 @@
         <v>15</v>
       </c>
       <c r="D80" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -16885,7 +16877,7 @@
         <v>5</v>
       </c>
       <c r="D81" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -16925,7 +16917,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
@@ -17212,49 +17204,49 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="9" style="78"/>
+    <col min="3" max="3" width="9" style="65"/>
     <col min="11" max="11" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B1" t="s">
+        <v>657</v>
+      </c>
+      <c r="C1" s="65" t="s">
+        <v>610</v>
+      </c>
+      <c r="D1" t="s">
+        <v>658</v>
+      </c>
+      <c r="E1" t="s">
+        <v>659</v>
+      </c>
+      <c r="F1" t="s">
         <v>660</v>
       </c>
-      <c r="C1" s="78" t="s">
-        <v>613</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>661</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>662</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>663</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
+        <v>515</v>
+      </c>
+      <c r="K1" t="s">
+        <v>516</v>
+      </c>
+      <c r="L1" t="s">
         <v>664</v>
       </c>
-      <c r="H1" t="s">
-        <v>665</v>
-      </c>
-      <c r="I1" t="s">
-        <v>666</v>
-      </c>
-      <c r="J1" t="s">
-        <v>517</v>
-      </c>
-      <c r="K1" t="s">
-        <v>518</v>
-      </c>
-      <c r="L1" t="s">
-        <v>667</v>
-      </c>
       <c r="N1" s="56" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
@@ -17264,7 +17256,7 @@
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2" s="78">
+      <c r="C2" s="65">
         <v>5</v>
       </c>
       <c r="D2">
@@ -17295,7 +17287,7 @@
         <v>1</v>
       </c>
       <c r="O2" t="str">
-        <f>CONCATENATE("update d_fixed_data set sub_id=",N2," where sub_id=",C2,";")</f>
+        <f t="shared" ref="O2:O9" si="0">CONCATENATE("update d_fixed_data set sub_id=",N2," where sub_id=",C2,";")</f>
         <v>update d_fixed_data set sub_id=1 where sub_id=5;</v>
       </c>
     </row>
@@ -17306,7 +17298,7 @@
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3" s="78">
+      <c r="C3" s="65">
         <v>1</v>
       </c>
       <c r="D3">
@@ -17337,7 +17329,7 @@
         <v>18</v>
       </c>
       <c r="O3" t="str">
-        <f>CONCATENATE("update d_fixed_data set sub_id=",N3," where sub_id=",C3,";")</f>
+        <f t="shared" si="0"/>
         <v>update d_fixed_data set sub_id=18 where sub_id=1;</v>
       </c>
     </row>
@@ -17348,7 +17340,7 @@
       <c r="B4">
         <v>0</v>
       </c>
-      <c r="C4" s="78">
+      <c r="C4" s="65">
         <v>2</v>
       </c>
       <c r="D4">
@@ -17379,7 +17371,7 @@
         <v>16</v>
       </c>
       <c r="O4" t="str">
-        <f>CONCATENATE("update d_fixed_data set sub_id=",N4," where sub_id=",C4,";")</f>
+        <f t="shared" si="0"/>
         <v>update d_fixed_data set sub_id=16 where sub_id=2;</v>
       </c>
     </row>
@@ -17390,7 +17382,7 @@
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5" s="78">
+      <c r="C5" s="65">
         <v>3</v>
       </c>
       <c r="D5">
@@ -17421,7 +17413,7 @@
         <v>21</v>
       </c>
       <c r="O5" t="str">
-        <f>CONCATENATE("update d_fixed_data set sub_id=",N5," where sub_id=",C5,";")</f>
+        <f t="shared" si="0"/>
         <v>update d_fixed_data set sub_id=21 where sub_id=3;</v>
       </c>
     </row>
@@ -17432,7 +17424,7 @@
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="C6" s="78">
+      <c r="C6" s="65">
         <v>4</v>
       </c>
       <c r="D6">
@@ -17463,7 +17455,7 @@
         <v>13</v>
       </c>
       <c r="O6" t="str">
-        <f>CONCATENATE("update d_fixed_data set sub_id=",N6," where sub_id=",C6,";")</f>
+        <f t="shared" si="0"/>
         <v>update d_fixed_data set sub_id=13 where sub_id=4;</v>
       </c>
     </row>
@@ -17474,7 +17466,7 @@
       <c r="B7">
         <v>0</v>
       </c>
-      <c r="C7" s="78">
+      <c r="C7" s="65">
         <v>9</v>
       </c>
       <c r="D7">
@@ -17505,7 +17497,7 @@
         <v>14</v>
       </c>
       <c r="O7" t="str">
-        <f>CONCATENATE("update d_fixed_data set sub_id=",N7," where sub_id=",C7,";")</f>
+        <f t="shared" si="0"/>
         <v>update d_fixed_data set sub_id=14 where sub_id=9;</v>
       </c>
     </row>
@@ -17516,7 +17508,7 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" s="78">
+      <c r="C8" s="65">
         <v>45</v>
       </c>
       <c r="D8">
@@ -17547,7 +17539,7 @@
         <v>60</v>
       </c>
       <c r="O8" t="str">
-        <f>CONCATENATE("update d_fixed_data set sub_id=",N8," where sub_id=",C8,";")</f>
+        <f t="shared" si="0"/>
         <v>update d_fixed_data set sub_id=60 where sub_id=45;</v>
       </c>
     </row>
@@ -17558,7 +17550,7 @@
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" s="78">
+      <c r="C9" s="65">
         <v>53</v>
       </c>
       <c r="D9">
@@ -17589,7 +17581,7 @@
         <v>62</v>
       </c>
       <c r="O9" t="str">
-        <f>CONCATENATE("update d_fixed_data set sub_id=",N9," where sub_id=",C9,";")</f>
+        <f t="shared" si="0"/>
         <v>update d_fixed_data set sub_id=62 where sub_id=53;</v>
       </c>
     </row>
@@ -17600,7 +17592,7 @@
       <c r="B10">
         <v>2</v>
       </c>
-      <c r="C10" s="78">
+      <c r="C10" s="65">
         <v>53</v>
       </c>
       <c r="D10">
@@ -17635,7 +17627,7 @@
       <c r="B11">
         <v>2</v>
       </c>
-      <c r="C11" s="78">
+      <c r="C11" s="65">
         <v>45</v>
       </c>
       <c r="D11">
@@ -17670,7 +17662,7 @@
       <c r="B12">
         <v>2</v>
       </c>
-      <c r="C12" s="78">
+      <c r="C12" s="65">
         <v>52</v>
       </c>
       <c r="D12">
@@ -17712,7 +17704,7 @@
       <c r="B13">
         <v>1</v>
       </c>
-      <c r="C13" s="78">
+      <c r="C13" s="65">
         <v>49</v>
       </c>
       <c r="D13">
@@ -17754,7 +17746,7 @@
       <c r="B14">
         <v>2</v>
       </c>
-      <c r="C14" s="78">
+      <c r="C14" s="65">
         <v>49</v>
       </c>
       <c r="D14">
@@ -17789,7 +17781,7 @@
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15" s="78">
+      <c r="C15" s="65">
         <v>47</v>
       </c>
       <c r="D15">
@@ -17817,13 +17809,13 @@
         <v>40988.781671458331</v>
       </c>
       <c r="L15" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="N15">
         <v>58</v>
       </c>
       <c r="O15" t="str">
-        <f>CONCATENATE("update d_fixed_data set sub_id=",N15," where sub_id=",C15,";")</f>
+        <f t="shared" ref="O15:O20" si="1">CONCATENATE("update d_fixed_data set sub_id=",N15," where sub_id=",C15,";")</f>
         <v>update d_fixed_data set sub_id=58 where sub_id=47;</v>
       </c>
     </row>
@@ -17834,7 +17826,7 @@
       <c r="B16">
         <v>1</v>
       </c>
-      <c r="C16" s="78">
+      <c r="C16" s="65">
         <v>43</v>
       </c>
       <c r="D16">
@@ -17862,13 +17854,13 @@
         <v>40988.781671458331</v>
       </c>
       <c r="L16" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="N16">
         <v>58</v>
       </c>
       <c r="O16" t="str">
-        <f>CONCATENATE("update d_fixed_data set sub_id=",N16," where sub_id=",C16,";")</f>
+        <f t="shared" si="1"/>
         <v>update d_fixed_data set sub_id=58 where sub_id=43;</v>
       </c>
     </row>
@@ -17879,7 +17871,7 @@
       <c r="B17">
         <v>3</v>
       </c>
-      <c r="C17" s="78">
+      <c r="C17" s="65">
         <v>17</v>
       </c>
       <c r="D17">
@@ -17907,13 +17899,13 @@
         <v>41003.989397395831</v>
       </c>
       <c r="L17" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="N17">
         <v>30</v>
       </c>
       <c r="O17" t="str">
-        <f>CONCATENATE("update d_fixed_data set sub_id=",N17," where sub_id=",C17,";")</f>
+        <f t="shared" si="1"/>
         <v>update d_fixed_data set sub_id=30 where sub_id=17;</v>
       </c>
     </row>
@@ -17924,7 +17916,7 @@
       <c r="B18">
         <v>3</v>
       </c>
-      <c r="C18" s="78">
+      <c r="C18" s="65">
         <v>15</v>
       </c>
       <c r="D18">
@@ -17952,13 +17944,13 @@
         <v>40999.370886701392</v>
       </c>
       <c r="L18" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="N18">
         <v>34</v>
       </c>
       <c r="O18" t="str">
-        <f>CONCATENATE("update d_fixed_data set sub_id=",N18," where sub_id=",C18,";")</f>
+        <f t="shared" si="1"/>
         <v>update d_fixed_data set sub_id=34 where sub_id=15;</v>
       </c>
     </row>
@@ -17969,7 +17961,7 @@
       <c r="B19">
         <v>1</v>
       </c>
-      <c r="C19" s="78">
+      <c r="C19" s="65">
         <v>25</v>
       </c>
       <c r="D19">
@@ -17997,13 +17989,13 @@
         <v>40988.781671458331</v>
       </c>
       <c r="L19" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="N19">
         <v>39</v>
       </c>
       <c r="O19" t="str">
-        <f>CONCATENATE("update d_fixed_data set sub_id=",N19," where sub_id=",C19,";")</f>
+        <f t="shared" si="1"/>
         <v>update d_fixed_data set sub_id=39 where sub_id=25;</v>
       </c>
     </row>
@@ -18014,7 +18006,7 @@
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="C20" s="78">
+      <c r="C20" s="65">
         <v>55</v>
       </c>
       <c r="D20">
@@ -18045,7 +18037,7 @@
         <v>70</v>
       </c>
       <c r="O20" t="str">
-        <f>CONCATENATE("update d_fixed_data set sub_id=",N20," where sub_id=",C20,";")</f>
+        <f t="shared" si="1"/>
         <v>update d_fixed_data set sub_id=70 where sub_id=55;</v>
       </c>
     </row>
